--- a/flashcards/Memcode - Latein - Fachvokabular Jus - Multiple Choice (JKU, Austria).xlsx
+++ b/flashcards/Memcode - Latein - Fachvokabular Jus - Multiple Choice (JKU, Austria).xlsx
@@ -19,6 +19,36 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;strong&gt;praes, praedis m.:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Verlegung des Gerichtsstandes&lt;/li&gt;&lt;li&gt;ein einmal erloschener Anspruch lebt nicht wieder auf&lt;/li&gt;&lt;li&gt;Verschiedenheit&lt;/li&gt;&lt;li&gt;Bürge&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bürge&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;iura praediorum urbanorum:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechte an städtischen Grundstücken oder Gebäudeservituten&lt;/li&gt;&lt;li&gt;Recht des Anbietens und Nachfolgens&lt;/li&gt;&lt;li&gt;eine Person, die bereits zur Ausführung einer Tat entschlossen ist&lt;/li&gt;&lt;li&gt;die Mutter ist immer gewiss&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Rechte an städtischen Grundstücken oder Gebäudeservituten</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;arbitrium iudicis:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Schwere, Gewicht, Last&lt;/li&gt;&lt;li&gt;Absicht, Wille (des Handelnden)&lt;/li&gt;&lt;li&gt;richterliches Ermessen&lt;/li&gt;&lt;li&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>richterliches Ermessen</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;uno actu:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;in einem Akt&lt;/li&gt;&lt;li&gt;die Abtretung vor Gericht (Eigentumsübertragungsform des römischen Rechts)&lt;/li&gt;&lt;li&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen &lt;/li&gt;&lt;li&gt;römisches Staatsamt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>in einem Akt</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;ne eat iudex ultra petita patrium:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesetzbuch, Gesetzessammlung&lt;/li&gt;&lt;li&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen&lt;/li&gt;&lt;li&gt;einjahrig befristetes Klagerecht&lt;/li&gt;&lt;li&gt;Rechtsnachfolge, Erbfolge&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;strong&gt;quod licet Iovi non licet bovi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Forderungsabtretung&lt;/li&gt;&lt;li&gt;eigenberechtigte Person&lt;/li&gt;&lt;li&gt;zum Schein&lt;/li&gt;&lt;li&gt;was Jupiter erlaubt ist, ist dem Ochsen nicht erlaubt (Ausdruck unterschiedlicher persönlicher Freiheiten nach Status)&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
@@ -73,7 +103,7 @@
     <t>Wort, Aussage</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;strong&gt;onus, -eris n. pl.: onera:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Last, Leistung, Beschwer&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;&lt;strong&gt;onus, -eris n. pl.: onera:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Last, Leistung, Beschwerde&lt;/li&gt;&lt;li&gt;Verkürzung über die Hälfte („übermäßig große“ Verletzung)&lt;/li&gt;&lt;li&gt;Schlussfolgerung vom Größeren auf das Kleine&lt;/li&gt;&lt;li&gt;einer Tat entschlossen sein&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Last, Leistung, Beschwer</t>
@@ -1222,12 +1252,6 @@
   </si>
   <si>
     <t>Vorschrift, Verjährung</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;praes, praedis m.:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Verlegung des Gerichtsstandes&lt;/li&gt;&lt;li&gt;ein einmal erloschener Anspruch lebt nicht wieder auf&lt;/li&gt;&lt;li&gt;Verschiedenheit&lt;/li&gt;&lt;li&gt;Burge&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Burge</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;praedium, -i n.:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Verurteilung&lt;/li&gt;&lt;li&gt;Ursache, (Rechts)grund, Titel
@@ -1625,16 +1649,16 @@
     <t>jede Definition im bürgerlichen Recht ist gefährlich</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;omnis definitio in iure civile:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesellschafter (vgl heute „Sozius“)&lt;/li&gt;&lt;li&gt;töten&lt;/li&gt;&lt;li&gt;Miteigentum&lt;/li&gt;&lt;li&gt;einer Tat entschlossen ist&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>einer Tat entschlossen ist</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;omni modo facturus:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Klage aus der Geschäftsführung ohne Auftrag&lt;/li&gt;&lt;li&gt;Schutzherr / Herr&lt;/li&gt;&lt;li&gt;Unterscheidung im Recht&lt;/li&gt;&lt;li&gt;eine Person, die bereits zur Ausführung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>eine Person, die bereits zur Ausführung</t>
+    <t>&lt;p&gt;&lt;strong&gt;omnis definitio in iure civile periculosa est:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesellschafter (vgl heute „Sozius“)&lt;/li&gt;&lt;li&gt;töten&lt;/li&gt;&lt;li&gt;Miteigentum&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;jede Definition im bürgerlichen Recht ist gefährlich&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;jede Definition im bürgerlichen Recht ist gefährlich&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;omni modo facturus:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Klage aus der Geschäftsführung ohne Auftrag&lt;/li&gt;&lt;li&gt;Schutzherr / Herr&lt;/li&gt;&lt;li&gt;Unterscheidung im Recht&lt;/li&gt;&lt;li&gt;eine Person, die bereits zur Ausführung einer Tat entschlossen ist &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;eine Person, die bereits zur Ausführung einer Tat entschlossen ist&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;odium, -i n.:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Hass&lt;/li&gt;&lt;li&gt;nach dem Tod&lt;/li&gt;&lt;li&gt;Verbannung, Exil&lt;/li&gt;&lt;li&gt;Hauptanklage, direkte Klage des Hauptanspruchsberechtigten&lt;/li&gt;&lt;/ul&gt;</t>
@@ -1984,12 +2008,6 @@
   </si>
   <si>
     <t>Stadt</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;uno actu:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;in einem Akt&lt;/li&gt;&lt;li&gt;die Abtretung vor Gericht (Eigentumsübertragungsform des römischen Rechts)&lt;/li&gt;&lt;li&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen hinausgehen&lt;/li&gt;&lt;li&gt;römisches Staatsamt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>in einem Akt</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;universitas, -atis f.:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;der Ort bestimmt das Geschehen&lt;/li&gt;&lt;li&gt;(Personen-)Gesamtheit, Körperschaft&lt;/li&gt;&lt;li&gt;Ursprung&lt;/li&gt;&lt;li&gt;öffentliche Bekanntmachung&lt;/li&gt;&lt;/ul&gt;</t>
@@ -2435,12 +2453,6 @@
     <t>die Notwendigkeit hat kein Gesetz</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;ne eat iudex ultra petita patrium:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesetzbuch, Gesetzessammlung&lt;/li&gt;&lt;li&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen hinausgehen&lt;/li&gt;&lt;li&gt;einjahrig befristetes Klagerecht&lt;/li&gt;&lt;li&gt;Rechtsnachfolge, Erbfolge&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>der Richter möge nicht über das Begehren der Parteien hinausgehen hinausgehen</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;b&gt;naturalis possessio:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Anklage&lt;/li&gt;&lt;li&gt;die (durch Beischlaf) vollzogene Ehe&lt;/li&gt;&lt;li&gt;für die Öffentlichkeit bestimmt&lt;/li&gt;&lt;li&gt;natürlicher Besitz&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
@@ -3141,12 +3153,6 @@
   </si>
   <si>
     <t>niemand ist verpflichtet, von dem ihm zustehenden Recht Gebrauch zu machen</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;iura praediorum urbanorum:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechte an städtischen Grundstücken oder Gebäudeservituten&lt;/li&gt;&lt;li&gt;Recht des Anbietens und Nachfolgens&lt;/li&gt;&lt;li&gt;eine Person, die bereits zur Ausführung&lt;/li&gt;&lt;li&gt;die Mutter ist immer gewiss&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Rechte an städtischen Grundstücken oder Gebäudeservituten</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;dolus directus:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Preis, Wert, „Zins“&lt;/li&gt;&lt;li&gt;letzter Wille&lt;/li&gt;&lt;li&gt;direkter Vorsatz&lt;/li&gt;&lt;li&gt;Gegenstand des Verbrechens / Beweisstück&lt;/li&gt;&lt;/ul&gt;</t>
@@ -5726,12 +5732,6 @@
   </si>
   <si>
     <t>Schiedsspruch</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;arbitrium iudicis:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Schwere, Gewicht, Last&lt;/li&gt;&lt;li&gt;Absicht, Wille (des Handelnden)&lt;/li&gt;&lt;li&gt;richterliches Ermessen&lt;/li&gt;&lt;li&gt;der Richter möge nicht über das Begehren der Parteien hinausgehen hinausgehen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>richterliches Ermessen</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;approbatio, -ionis f.:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Rechtsunkenntnis&lt;/li&gt;&lt;li&gt;durch Gewahrsam und Besitzwillen&lt;/li&gt;&lt;li&gt;Bestätigung, Billigung&lt;/li&gt;&lt;li&gt;auf einem Vertrage beruhend&lt;/li&gt;&lt;/ul&gt;</t>
@@ -7763,47 +7763,47 @@
         <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10075,31 +10075,31 @@
         <v>775</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>726</v>
+        <v>776</v>
       </c>
     </row>
     <row r="390" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="391" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>781</v>
+        <v>732</v>
       </c>
     </row>
     <row r="393" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -12099,15 +12099,15 @@
         <v>1280</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1153</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="643" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1282</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="644" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15075,7 +15075,7 @@
         <v>2023</v>
       </c>
       <c r="B1014" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1015" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/flashcards/Memcode - Latein - Fachvokabular Jus - Multiple Choice (JKU, Austria).xlsx
+++ b/flashcards/Memcode - Latein - Fachvokabular Jus - Multiple Choice (JKU, Austria).xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD325EB0-386E-45EF-8FB1-2D86E7909B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Latein - Fachvokabular Jus - Mu" state="visible" r:id="rId4"/>
+    <sheet name="Latein - Fachvokabular Jus - Mu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="2168">
   <si>
     <t>Question</t>
   </si>
@@ -1641,12 +1645,6 @@
   </si>
   <si>
     <t>Beweislast</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;periculosa est:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Auflösung&lt;/li&gt;&lt;li&gt;jede Definition im bürgerlichen Recht ist gefährlich&lt;/li&gt;&lt;li&gt;Verkürzung über die Hälfte („übermäßig große“ Verletzung)&lt;/li&gt;&lt;li&gt;Schlussfolgerung vom Größeren auf das Kleine&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>jede Definition im bürgerlichen Recht ist gefährlich</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;strong&gt;omnis definitio in iure civile periculosa est:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Gesellschafter (vgl heute „Sozius“)&lt;/li&gt;&lt;li&gt;töten&lt;/li&gt;&lt;li&gt;Miteigentum&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;jede Definition im bürgerlichen Recht ist gefährlich&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
@@ -6576,21 +6574,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6959,14 +6959,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1087"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1086"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6974,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6982,7 +6987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +6995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -6998,7 +7003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -7006,7 +7011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -7014,7 +7019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -7030,7 +7035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -7046,7 +7051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -7054,7 +7059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -7062,7 +7067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -7078,7 +7083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -7086,7 +7091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -7094,7 +7099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -7102,7 +7107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -7118,7 +7123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -7126,7 +7131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -7134,7 +7139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -7142,7 +7147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -7150,7 +7155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -7158,7 +7163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -7174,7 +7179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -7182,7 +7187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -7190,7 +7195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -7198,7 +7203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -7214,7 +7219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -7230,7 +7235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -7238,7 +7243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -7254,7 +7259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -7270,7 +7275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -7278,7 +7283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -7286,7 +7291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -7310,7 +7315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -7318,7 +7323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -7326,7 +7331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -7342,7 +7347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -7358,7 +7363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -7366,7 +7371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -7374,7 +7379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -7382,7 +7387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -7390,7 +7395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -7398,7 +7403,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -7406,7 +7411,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -7414,7 +7419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -7422,7 +7427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -7430,7 +7435,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -7438,7 +7443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -7446,7 +7451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -7454,7 +7459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -7470,7 +7475,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -7478,7 +7483,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -7486,7 +7491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -7494,7 +7499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -7502,7 +7507,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -7510,7 +7515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -7526,7 +7531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -7534,7 +7539,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -7542,7 +7547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -7550,7 +7555,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -7558,7 +7563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -7582,7 +7587,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -7590,7 +7595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -7598,7 +7603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -7606,7 +7611,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -7614,7 +7619,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -7622,7 +7627,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -7630,7 +7635,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -7638,7 +7643,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -7646,7 +7651,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -7654,7 +7659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -7662,7 +7667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -7670,7 +7675,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -7678,7 +7683,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -7686,7 +7691,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -7694,7 +7699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -7702,7 +7707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -7718,7 +7723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -7726,7 +7731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -7734,7 +7739,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
@@ -7742,7 +7747,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
@@ -7750,7 +7755,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -7758,7 +7763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -7774,7 +7779,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -7782,7 +7787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
@@ -7790,7 +7795,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
@@ -7806,7 +7811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>209</v>
       </c>
@@ -7814,7 +7819,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>211</v>
       </c>
@@ -7822,7 +7827,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>213</v>
       </c>
@@ -7830,7 +7835,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>215</v>
       </c>
@@ -7838,7 +7843,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>217</v>
       </c>
@@ -7846,7 +7851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>219</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>221</v>
       </c>
@@ -7862,7 +7867,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>223</v>
       </c>
@@ -7870,7 +7875,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>225</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>227</v>
       </c>
@@ -7886,7 +7891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>229</v>
       </c>
@@ -7894,7 +7899,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>231</v>
       </c>
@@ -7902,7 +7907,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>233</v>
       </c>
@@ -7910,7 +7915,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>235</v>
       </c>
@@ -7918,7 +7923,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>237</v>
       </c>
@@ -7926,7 +7931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>239</v>
       </c>
@@ -7934,7 +7939,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>241</v>
       </c>
@@ -7942,7 +7947,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>243</v>
       </c>
@@ -7950,7 +7955,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>245</v>
       </c>
@@ -7958,7 +7963,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>247</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>249</v>
       </c>
@@ -7974,7 +7979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>251</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>253</v>
       </c>
@@ -7990,7 +7995,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>255</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>257</v>
       </c>
@@ -8006,7 +8011,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>259</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>261</v>
       </c>
@@ -8022,7 +8027,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>263</v>
       </c>
@@ -8030,7 +8035,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>265</v>
       </c>
@@ -8038,7 +8043,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>267</v>
       </c>
@@ -8046,7 +8051,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>269</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>271</v>
       </c>
@@ -8062,7 +8067,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>273</v>
       </c>
@@ -8070,7 +8075,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>275</v>
       </c>
@@ -8078,7 +8083,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>277</v>
       </c>
@@ -8086,7 +8091,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>279</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>281</v>
       </c>
@@ -8102,7 +8107,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>283</v>
       </c>
@@ -8110,7 +8115,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>285</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>287</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>289</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>291</v>
       </c>
@@ -8142,7 +8147,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>293</v>
       </c>
@@ -8150,7 +8155,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>295</v>
       </c>
@@ -8158,7 +8163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>297</v>
       </c>
@@ -8166,7 +8171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>299</v>
       </c>
@@ -8174,7 +8179,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>301</v>
       </c>
@@ -8182,7 +8187,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>303</v>
       </c>
@@ -8190,7 +8195,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>305</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>307</v>
       </c>
@@ -8206,7 +8211,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>309</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>311</v>
       </c>
@@ -8222,7 +8227,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>313</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>315</v>
       </c>
@@ -8238,7 +8243,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>317</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>319</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>321</v>
       </c>
@@ -8262,7 +8267,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>323</v>
       </c>
@@ -8270,7 +8275,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>325</v>
       </c>
@@ -8278,7 +8283,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>327</v>
       </c>
@@ -8286,7 +8291,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="166" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>329</v>
       </c>
@@ -8294,7 +8299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="167" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>331</v>
       </c>
@@ -8302,7 +8307,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>333</v>
       </c>
@@ -8310,7 +8315,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="169" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>335</v>
       </c>
@@ -8318,7 +8323,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>337</v>
       </c>
@@ -8326,7 +8331,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="171" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>339</v>
       </c>
@@ -8334,7 +8339,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>341</v>
       </c>
@@ -8342,7 +8347,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>343</v>
       </c>
@@ -8350,7 +8355,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>345</v>
       </c>
@@ -8358,7 +8363,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="175" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>347</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>349</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>351</v>
       </c>
@@ -8382,7 +8387,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>353</v>
       </c>
@@ -8390,7 +8395,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>355</v>
       </c>
@@ -8398,7 +8403,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>357</v>
       </c>
@@ -8406,7 +8411,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>359</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>361</v>
       </c>
@@ -8422,7 +8427,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="183" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>363</v>
       </c>
@@ -8430,7 +8435,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>365</v>
       </c>
@@ -8438,7 +8443,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>367</v>
       </c>
@@ -8446,7 +8451,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>369</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>371</v>
       </c>
@@ -8462,7 +8467,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>373</v>
       </c>
@@ -8470,7 +8475,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>375</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>377</v>
       </c>
@@ -8486,7 +8491,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>379</v>
       </c>
@@ -8494,7 +8499,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>381</v>
       </c>
@@ -8502,7 +8507,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>383</v>
       </c>
@@ -8510,7 +8515,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="194" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>385</v>
       </c>
@@ -8518,7 +8523,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>387</v>
       </c>
@@ -8526,7 +8531,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>389</v>
       </c>
@@ -8534,7 +8539,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>391</v>
       </c>
@@ -8542,7 +8547,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>393</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>395</v>
       </c>
@@ -8558,7 +8563,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>397</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>399</v>
       </c>
@@ -8574,7 +8579,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>401</v>
       </c>
@@ -8582,7 +8587,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>403</v>
       </c>
@@ -8590,7 +8595,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>405</v>
       </c>
@@ -8598,7 +8603,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>407</v>
       </c>
@@ -8606,7 +8611,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>409</v>
       </c>
@@ -8614,7 +8619,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>411</v>
       </c>
@@ -8622,7 +8627,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>413</v>
       </c>
@@ -8630,7 +8635,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>415</v>
       </c>
@@ -8638,7 +8643,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>417</v>
       </c>
@@ -8646,7 +8651,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="211" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>419</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>421</v>
       </c>
@@ -8662,7 +8667,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="213" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>423</v>
       </c>
@@ -8670,7 +8675,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>425</v>
       </c>
@@ -8678,7 +8683,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="215" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>427</v>
       </c>
@@ -8686,7 +8691,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>429</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="217" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>431</v>
       </c>
@@ -8702,7 +8707,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>433</v>
       </c>
@@ -8710,7 +8715,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>435</v>
       </c>
@@ -8718,7 +8723,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>437</v>
       </c>
@@ -8726,7 +8731,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="221" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>439</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>441</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>443</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>445</v>
       </c>
@@ -8758,7 +8763,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="225" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>447</v>
       </c>
@@ -8766,7 +8771,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="226" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>449</v>
       </c>
@@ -8774,7 +8779,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="227" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>451</v>
       </c>
@@ -8782,7 +8787,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="228" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>453</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>455</v>
       </c>
@@ -8798,7 +8803,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>457</v>
       </c>
@@ -8806,7 +8811,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="231" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>459</v>
       </c>
@@ -8814,7 +8819,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>461</v>
       </c>
@@ -8822,7 +8827,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="233" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>463</v>
       </c>
@@ -8830,7 +8835,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>465</v>
       </c>
@@ -8838,7 +8843,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="235" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>467</v>
       </c>
@@ -8846,7 +8851,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="236" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>469</v>
       </c>
@@ -8854,7 +8859,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="237" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>471</v>
       </c>
@@ -8862,7 +8867,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="238" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>473</v>
       </c>
@@ -8870,7 +8875,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="239" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>475</v>
       </c>
@@ -8878,7 +8883,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="240" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>477</v>
       </c>
@@ -8886,7 +8891,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="241" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>479</v>
       </c>
@@ -8894,7 +8899,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="242" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>481</v>
       </c>
@@ -8902,7 +8907,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="243" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>483</v>
       </c>
@@ -8910,7 +8915,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="244" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>485</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="245" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>487</v>
       </c>
@@ -8926,7 +8931,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="246" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>489</v>
       </c>
@@ -8934,7 +8939,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>491</v>
       </c>
@@ -8942,7 +8947,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>493</v>
       </c>
@@ -8950,7 +8955,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="249" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>495</v>
       </c>
@@ -8958,7 +8963,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="250" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>497</v>
       </c>
@@ -8966,7 +8971,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="251" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>499</v>
       </c>
@@ -8974,7 +8979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="252" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>501</v>
       </c>
@@ -8982,7 +8987,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="253" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>503</v>
       </c>
@@ -8990,7 +8995,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="254" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>505</v>
       </c>
@@ -8998,7 +9003,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>507</v>
       </c>
@@ -9006,7 +9011,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>509</v>
       </c>
@@ -9014,7 +9019,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="257" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>511</v>
       </c>
@@ -9022,7 +9027,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="258" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>513</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="259" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>515</v>
       </c>
@@ -9038,7 +9043,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>517</v>
       </c>
@@ -9046,7 +9051,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="261" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>519</v>
       </c>
@@ -9054,7 +9059,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="262" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>521</v>
       </c>
@@ -9062,7 +9067,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="263" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>523</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="264" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>525</v>
       </c>
@@ -9078,7 +9083,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="265" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>527</v>
       </c>
@@ -9086,7 +9091,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="266" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>529</v>
       </c>
@@ -9094,7 +9099,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="267" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>531</v>
       </c>
@@ -9102,7 +9107,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="268" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>533</v>
       </c>
@@ -9110,7 +9115,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="269" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>535</v>
       </c>
@@ -9118,7 +9123,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="270" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>537</v>
       </c>
@@ -9126,7 +9131,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="271" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>539</v>
       </c>
@@ -9134,7 +9139,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="272" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>541</v>
       </c>
@@ -9142,7 +9147,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>543</v>
       </c>
@@ -9150,7 +9155,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="274" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>545</v>
       </c>
@@ -9158,7 +9163,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="275" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>547</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="276" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>549</v>
       </c>
@@ -9174,7 +9179,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="277" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>551</v>
       </c>
@@ -9182,7 +9187,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="278" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>553</v>
       </c>
@@ -9190,7 +9195,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>555</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="280" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>557</v>
       </c>
@@ -9206,7 +9211,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="281" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>559</v>
       </c>
@@ -9214,7 +9219,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="282" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>561</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>563</v>
       </c>
@@ -9230,7 +9235,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="284" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>565</v>
       </c>
@@ -9238,7 +9243,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="285" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>567</v>
       </c>
@@ -9246,7 +9251,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="286" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>569</v>
       </c>
@@ -9254,7 +9259,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>571</v>
       </c>
@@ -9262,7 +9267,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="288" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>573</v>
       </c>
@@ -9270,7 +9275,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="289" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>575</v>
       </c>
@@ -9278,7 +9283,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="290" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>577</v>
       </c>
@@ -9286,7 +9291,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="291" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>579</v>
       </c>
@@ -9294,7 +9299,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="292" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>581</v>
       </c>
@@ -9302,7 +9307,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="293" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>583</v>
       </c>
@@ -9310,7 +9315,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="294" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>585</v>
       </c>
@@ -9318,7 +9323,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="295" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>587</v>
       </c>
@@ -9326,7 +9331,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="296" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>589</v>
       </c>
@@ -9334,7 +9339,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="297" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>591</v>
       </c>
@@ -9342,7 +9347,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="298" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>593</v>
       </c>
@@ -9350,7 +9355,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="299" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>595</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>597</v>
       </c>
@@ -9366,7 +9371,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>599</v>
       </c>
@@ -9374,7 +9379,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="302" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>601</v>
       </c>
@@ -9382,7 +9387,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="303" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>603</v>
       </c>
@@ -9390,7 +9395,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="304" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>605</v>
       </c>
@@ -9398,7 +9403,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="305" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>607</v>
       </c>
@@ -9406,7 +9411,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="306" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>609</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="307" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>611</v>
       </c>
@@ -9422,7 +9427,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>613</v>
       </c>
@@ -9430,7 +9435,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="309" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>615</v>
       </c>
@@ -9438,7 +9443,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="310" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>617</v>
       </c>
@@ -9446,7 +9451,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="311" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>619</v>
       </c>
@@ -9454,7 +9459,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="312" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>621</v>
       </c>
@@ -9462,7 +9467,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="313" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>623</v>
       </c>
@@ -9470,7 +9475,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="314" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>625</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="315" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>627</v>
       </c>
@@ -9486,7 +9491,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>629</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="317" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>631</v>
       </c>
@@ -9502,7 +9507,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="318" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>633</v>
       </c>
@@ -9510,7 +9515,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="319" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>635</v>
       </c>
@@ -9518,7 +9523,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="320" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>637</v>
       </c>
@@ -9526,7 +9531,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="321" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>639</v>
       </c>
@@ -9534,7 +9539,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="322" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>641</v>
       </c>
@@ -9542,7 +9547,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="323" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>643</v>
       </c>
@@ -9550,7 +9555,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="324" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>645</v>
       </c>
@@ -9558,7 +9563,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>647</v>
       </c>
@@ -9566,7 +9571,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="326" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>649</v>
       </c>
@@ -9574,7 +9579,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>651</v>
       </c>
@@ -9582,7 +9587,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="328" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>653</v>
       </c>
@@ -9590,7 +9595,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="329" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>655</v>
       </c>
@@ -9598,7 +9603,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="330" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>657</v>
       </c>
@@ -9606,7 +9611,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>659</v>
       </c>
@@ -9614,7 +9619,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="332" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>661</v>
       </c>
@@ -9622,7 +9627,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="333" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>663</v>
       </c>
@@ -9630,7 +9635,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="334" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>665</v>
       </c>
@@ -9638,7 +9643,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="335" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>667</v>
       </c>
@@ -9646,7 +9651,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="336" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>669</v>
       </c>
@@ -9654,7 +9659,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="337" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>671</v>
       </c>
@@ -9662,7 +9667,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="338" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>673</v>
       </c>
@@ -9670,7 +9675,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>675</v>
       </c>
@@ -9678,7 +9683,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="340" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>677</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="341" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>679</v>
       </c>
@@ -9694,7 +9699,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="342" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>681</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="343" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>683</v>
       </c>
@@ -9710,7 +9715,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="344" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>685</v>
       </c>
@@ -9718,7 +9723,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="345" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>687</v>
       </c>
@@ -9726,7 +9731,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="346" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>689</v>
       </c>
@@ -9734,7 +9739,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="347" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>691</v>
       </c>
@@ -9742,7 +9747,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="348" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>693</v>
       </c>
@@ -9750,7 +9755,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="349" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>695</v>
       </c>
@@ -9758,7 +9763,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="350" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>697</v>
       </c>
@@ -9766,7 +9771,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="351" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>699</v>
       </c>
@@ -9774,7 +9779,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="352" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>701</v>
       </c>
@@ -9782,7 +9787,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="353" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>703</v>
       </c>
@@ -9790,7 +9795,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>705</v>
       </c>
@@ -9798,7 +9803,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="355" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>707</v>
       </c>
@@ -9806,7 +9811,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="356" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>709</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="357" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>711</v>
       </c>
@@ -9822,7 +9827,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>713</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="359" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>715</v>
       </c>
@@ -9838,7 +9843,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="360" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>717</v>
       </c>
@@ -9846,7 +9851,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="361" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>719</v>
       </c>
@@ -9854,7 +9859,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="362" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>721</v>
       </c>
@@ -9862,7 +9867,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="363" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>723</v>
       </c>
@@ -9870,7 +9875,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="364" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>725</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="365" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>727</v>
       </c>
@@ -9886,7 +9891,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="366" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>729</v>
       </c>
@@ -9894,7 +9899,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="367" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>731</v>
       </c>
@@ -9902,7 +9907,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="368" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>733</v>
       </c>
@@ -9910,7 +9915,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="369" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>735</v>
       </c>
@@ -9918,7 +9923,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="370" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>737</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="371" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>739</v>
       </c>
@@ -9934,7 +9939,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="372" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>741</v>
       </c>
@@ -9942,7 +9947,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="373" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>743</v>
       </c>
@@ -9950,7 +9955,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="374" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>745</v>
       </c>
@@ -9958,7 +9963,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="375" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>747</v>
       </c>
@@ -9966,7 +9971,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="376" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>749</v>
       </c>
@@ -9974,7 +9979,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>751</v>
       </c>
@@ -9982,7 +9987,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="378" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>753</v>
       </c>
@@ -9990,7 +9995,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="379" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>755</v>
       </c>
@@ -9998,7 +10003,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="380" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>757</v>
       </c>
@@ -10006,7 +10011,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="381" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>759</v>
       </c>
@@ -10014,7 +10019,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="382" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>761</v>
       </c>
@@ -10022,7 +10027,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="383" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>763</v>
       </c>
@@ -10030,7 +10035,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="384" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>765</v>
       </c>
@@ -10038,7 +10043,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="385" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>767</v>
       </c>
@@ -10046,7 +10051,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="386" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>769</v>
       </c>
@@ -10054,7 +10059,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="387" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>771</v>
       </c>
@@ -10062,7 +10067,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="388" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>773</v>
       </c>
@@ -10070,7 +10075,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="389" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>775</v>
       </c>
@@ -10078,7 +10083,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="390" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>777</v>
       </c>
@@ -10086,23 +10091,23 @@
         <v>778</v>
       </c>
     </row>
-    <row r="391" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>779</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
+      <c r="B392" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B392" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>782</v>
       </c>
@@ -10110,7 +10115,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="394" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>784</v>
       </c>
@@ -10118,7 +10123,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="395" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>786</v>
       </c>
@@ -10126,7 +10131,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="396" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>788</v>
       </c>
@@ -10134,7 +10139,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="397" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>790</v>
       </c>
@@ -10142,7 +10147,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="398" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>792</v>
       </c>
@@ -10150,7 +10155,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="399" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>794</v>
       </c>
@@ -10158,7 +10163,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="400" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>796</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="401" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>798</v>
       </c>
@@ -10174,7 +10179,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="402" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>800</v>
       </c>
@@ -10182,7 +10187,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="403" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>802</v>
       </c>
@@ -10190,7 +10195,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="404" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>804</v>
       </c>
@@ -10198,7 +10203,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="405" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>806</v>
       </c>
@@ -10206,7 +10211,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="406" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>808</v>
       </c>
@@ -10214,7 +10219,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="407" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>810</v>
       </c>
@@ -10222,7 +10227,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="408" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>812</v>
       </c>
@@ -10230,7 +10235,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="409" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>814</v>
       </c>
@@ -10238,7 +10243,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="410" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>816</v>
       </c>
@@ -10246,7 +10251,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="411" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>818</v>
       </c>
@@ -10254,7 +10259,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="412" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>820</v>
       </c>
@@ -10262,7 +10267,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="413" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>822</v>
       </c>
@@ -10270,7 +10275,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="414" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>824</v>
       </c>
@@ -10278,7 +10283,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="415" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>826</v>
       </c>
@@ -10286,7 +10291,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="416" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>828</v>
       </c>
@@ -10294,7 +10299,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="417" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>830</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="418" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>832</v>
       </c>
@@ -10310,7 +10315,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="419" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>834</v>
       </c>
@@ -10318,7 +10323,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="420" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>836</v>
       </c>
@@ -10326,7 +10331,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="421" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>838</v>
       </c>
@@ -10334,7 +10339,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="422" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>840</v>
       </c>
@@ -10342,7 +10347,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="423" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>842</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="424" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>844</v>
       </c>
@@ -10358,7 +10363,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="425" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>846</v>
       </c>
@@ -10366,7 +10371,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="426" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>848</v>
       </c>
@@ -10374,7 +10379,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="427" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>850</v>
       </c>
@@ -10382,7 +10387,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="428" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>852</v>
       </c>
@@ -10390,7 +10395,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="429" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>854</v>
       </c>
@@ -10398,7 +10403,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="430" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>856</v>
       </c>
@@ -10406,7 +10411,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="431" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>858</v>
       </c>
@@ -10414,7 +10419,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="432" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>860</v>
       </c>
@@ -10422,7 +10427,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="433" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>862</v>
       </c>
@@ -10430,7 +10435,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="434" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>864</v>
       </c>
@@ -10438,7 +10443,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="435" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>866</v>
       </c>
@@ -10446,7 +10451,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="436" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>868</v>
       </c>
@@ -10454,7 +10459,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="437" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>870</v>
       </c>
@@ -10462,7 +10467,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="438" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>872</v>
       </c>
@@ -10470,7 +10475,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="439" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>874</v>
       </c>
@@ -10478,7 +10483,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="440" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>876</v>
       </c>
@@ -10486,7 +10491,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="441" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>878</v>
       </c>
@@ -10494,7 +10499,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="442" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>880</v>
       </c>
@@ -10502,7 +10507,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="443" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>882</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="444" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>884</v>
       </c>
@@ -10518,7 +10523,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="445" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>886</v>
       </c>
@@ -10526,7 +10531,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="446" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>888</v>
       </c>
@@ -10534,7 +10539,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="447" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>890</v>
       </c>
@@ -10542,7 +10547,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="448" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>892</v>
       </c>
@@ -10550,7 +10555,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="449" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>894</v>
       </c>
@@ -10558,7 +10563,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="450" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>896</v>
       </c>
@@ -10566,7 +10571,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="451" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>898</v>
       </c>
@@ -10574,7 +10579,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="452" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>900</v>
       </c>
@@ -10582,7 +10587,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="453" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>902</v>
       </c>
@@ -10590,7 +10595,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="454" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>904</v>
       </c>
@@ -10598,7 +10603,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="455" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>906</v>
       </c>
@@ -10606,7 +10611,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="456" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>908</v>
       </c>
@@ -10614,7 +10619,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="457" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>910</v>
       </c>
@@ -10622,7 +10627,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="458" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>912</v>
       </c>
@@ -10630,7 +10635,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="459" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>914</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="460" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>916</v>
       </c>
@@ -10646,7 +10651,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="461" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>918</v>
       </c>
@@ -10654,7 +10659,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="462" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>920</v>
       </c>
@@ -10662,7 +10667,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="463" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>922</v>
       </c>
@@ -10670,7 +10675,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="464" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>924</v>
       </c>
@@ -10678,7 +10683,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="465" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>926</v>
       </c>
@@ -10686,7 +10691,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="466" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>928</v>
       </c>
@@ -10694,7 +10699,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="467" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>930</v>
       </c>
@@ -10702,7 +10707,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="468" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>932</v>
       </c>
@@ -10710,7 +10715,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="469" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>934</v>
       </c>
@@ -10718,7 +10723,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="470" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>936</v>
       </c>
@@ -10726,7 +10731,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="471" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>938</v>
       </c>
@@ -10734,7 +10739,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="472" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>940</v>
       </c>
@@ -10742,7 +10747,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="473" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>942</v>
       </c>
@@ -10750,7 +10755,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="474" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>944</v>
       </c>
@@ -10758,7 +10763,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="475" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>946</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="476" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>948</v>
       </c>
@@ -10774,7 +10779,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="477" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>950</v>
       </c>
@@ -10782,7 +10787,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="478" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>952</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="479" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>954</v>
       </c>
@@ -10798,7 +10803,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="480" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>956</v>
       </c>
@@ -10806,7 +10811,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="481" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>958</v>
       </c>
@@ -10814,7 +10819,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="482" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>960</v>
       </c>
@@ -10822,7 +10827,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="483" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>962</v>
       </c>
@@ -10830,7 +10835,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="484" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>964</v>
       </c>
@@ -10838,7 +10843,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="485" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>966</v>
       </c>
@@ -10846,7 +10851,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="486" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>968</v>
       </c>
@@ -10854,7 +10859,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="487" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>970</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="488" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>972</v>
       </c>
@@ -10870,7 +10875,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="489" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>974</v>
       </c>
@@ -10878,7 +10883,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="490" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>976</v>
       </c>
@@ -10886,7 +10891,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="491" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>978</v>
       </c>
@@ -10894,7 +10899,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="492" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>980</v>
       </c>
@@ -10902,7 +10907,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="493" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>982</v>
       </c>
@@ -10910,7 +10915,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="494" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>984</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="495" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>986</v>
       </c>
@@ -10926,7 +10931,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="496" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>988</v>
       </c>
@@ -10934,7 +10939,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="497" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>990</v>
       </c>
@@ -10942,7 +10947,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="498" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>992</v>
       </c>
@@ -10950,7 +10955,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="499" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>994</v>
       </c>
@@ -10958,7 +10963,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="500" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>996</v>
       </c>
@@ -10966,7 +10971,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="501" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>998</v>
       </c>
@@ -10974,7 +10979,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="502" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>1000</v>
       </c>
@@ -10982,7 +10987,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="503" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>1002</v>
       </c>
@@ -10990,7 +10995,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="504" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>1004</v>
       </c>
@@ -10998,7 +11003,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="505" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>1006</v>
       </c>
@@ -11006,7 +11011,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="506" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>1008</v>
       </c>
@@ -11014,7 +11019,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="507" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>1010</v>
       </c>
@@ -11022,7 +11027,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="508" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>1012</v>
       </c>
@@ -11030,7 +11035,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="509" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>1014</v>
       </c>
@@ -11038,7 +11043,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="510" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>1016</v>
       </c>
@@ -11046,7 +11051,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="511" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>1018</v>
       </c>
@@ -11054,7 +11059,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="512" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>1020</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="513" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>1022</v>
       </c>
@@ -11070,7 +11075,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="514" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>1024</v>
       </c>
@@ -11078,7 +11083,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="515" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>1026</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="516" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>1028</v>
       </c>
@@ -11094,7 +11099,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="517" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>1030</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="518" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11110,7 +11115,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="519" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>1034</v>
       </c>
@@ -11118,7 +11123,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="520" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>1036</v>
       </c>
@@ -11126,7 +11131,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="521" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>1038</v>
       </c>
@@ -11134,7 +11139,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="522" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>1040</v>
       </c>
@@ -11142,7 +11147,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="523" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>1042</v>
       </c>
@@ -11150,7 +11155,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="524" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>1044</v>
       </c>
@@ -11158,7 +11163,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="525" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>1046</v>
       </c>
@@ -11166,7 +11171,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="526" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>1048</v>
       </c>
@@ -11174,7 +11179,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="527" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>1050</v>
       </c>
@@ -11182,7 +11187,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="528" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>1052</v>
       </c>
@@ -11190,7 +11195,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="529" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>1054</v>
       </c>
@@ -11198,7 +11203,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="530" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1056</v>
       </c>
@@ -11206,7 +11211,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="531" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1058</v>
       </c>
@@ -11214,7 +11219,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="532" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>1060</v>
       </c>
@@ -11222,7 +11227,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="533" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>1062</v>
       </c>
@@ -11230,7 +11235,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="534" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1064</v>
       </c>
@@ -11238,7 +11243,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="535" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>1066</v>
       </c>
@@ -11246,7 +11251,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="536" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>1068</v>
       </c>
@@ -11254,7 +11259,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="537" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1070</v>
       </c>
@@ -11262,7 +11267,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="538" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>1072</v>
       </c>
@@ -11270,7 +11275,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="539" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>1074</v>
       </c>
@@ -11278,7 +11283,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="540" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1076</v>
       </c>
@@ -11286,7 +11291,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="541" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1078</v>
       </c>
@@ -11294,7 +11299,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="542" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>1080</v>
       </c>
@@ -11302,7 +11307,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="543" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1082</v>
       </c>
@@ -11310,7 +11315,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="544" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1084</v>
       </c>
@@ -11318,7 +11323,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="545" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="546" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>1088</v>
       </c>
@@ -11334,7 +11339,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="547" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>1090</v>
       </c>
@@ -11342,7 +11347,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="548" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1092</v>
       </c>
@@ -11350,7 +11355,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="549" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>1094</v>
       </c>
@@ -11358,7 +11363,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="550" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1096</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="551" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>1098</v>
       </c>
@@ -11374,7 +11379,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="552" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>1100</v>
       </c>
@@ -11382,7 +11387,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="553" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>1102</v>
       </c>
@@ -11390,7 +11395,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="554" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1104</v>
       </c>
@@ -11398,7 +11403,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="555" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1106</v>
       </c>
@@ -11406,7 +11411,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="556" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1108</v>
       </c>
@@ -11414,7 +11419,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="557" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1110</v>
       </c>
@@ -11422,7 +11427,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="558" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>1112</v>
       </c>
@@ -11430,7 +11435,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="559" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1114</v>
       </c>
@@ -11438,7 +11443,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="560" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1116</v>
       </c>
@@ -11446,7 +11451,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="561" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1118</v>
       </c>
@@ -11454,7 +11459,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="562" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1120</v>
       </c>
@@ -11462,7 +11467,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="563" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1122</v>
       </c>
@@ -11470,7 +11475,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="564" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1124</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="565" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1126</v>
       </c>
@@ -11486,7 +11491,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="566" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>1128</v>
       </c>
@@ -11494,7 +11499,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="567" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1130</v>
       </c>
@@ -11502,7 +11507,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="568" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1132</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="569" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1134</v>
       </c>
@@ -11518,7 +11523,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="570" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1136</v>
       </c>
@@ -11526,7 +11531,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="571" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1138</v>
       </c>
@@ -11534,7 +11539,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="572" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1140</v>
       </c>
@@ -11542,7 +11547,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="573" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1142</v>
       </c>
@@ -11550,7 +11555,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="574" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1144</v>
       </c>
@@ -11558,7 +11563,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="575" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1146</v>
       </c>
@@ -11566,7 +11571,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="576" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1148</v>
       </c>
@@ -11574,7 +11579,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="577" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1150</v>
       </c>
@@ -11582,7 +11587,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="578" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1152</v>
       </c>
@@ -11590,7 +11595,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="579" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1154</v>
       </c>
@@ -11598,7 +11603,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="580" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1156</v>
       </c>
@@ -11606,7 +11611,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="581" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1158</v>
       </c>
@@ -11614,7 +11619,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="582" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1160</v>
       </c>
@@ -11622,7 +11627,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="583" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1162</v>
       </c>
@@ -11630,7 +11635,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="584" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>1164</v>
       </c>
@@ -11638,7 +11643,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="585" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>1166</v>
       </c>
@@ -11646,7 +11651,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="586" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1168</v>
       </c>
@@ -11654,7 +11659,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="587" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1170</v>
       </c>
@@ -11662,7 +11667,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="588" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1172</v>
       </c>
@@ -11670,7 +11675,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="589" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1174</v>
       </c>
@@ -11678,7 +11683,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="590" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>1176</v>
       </c>
@@ -11686,7 +11691,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="591" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1178</v>
       </c>
@@ -11694,7 +11699,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="592" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1180</v>
       </c>
@@ -11702,7 +11707,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="593" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1182</v>
       </c>
@@ -11710,7 +11715,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="594" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>1184</v>
       </c>
@@ -11718,7 +11723,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="595" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1186</v>
       </c>
@@ -11726,7 +11731,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="596" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>1188</v>
       </c>
@@ -11734,7 +11739,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="597" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>1190</v>
       </c>
@@ -11742,7 +11747,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="598" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>1192</v>
       </c>
@@ -11750,7 +11755,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="599" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>1194</v>
       </c>
@@ -11758,7 +11763,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="600" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1196</v>
       </c>
@@ -11766,7 +11771,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="601" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1198</v>
       </c>
@@ -11774,7 +11779,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="602" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1200</v>
       </c>
@@ -11782,7 +11787,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="603" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>1202</v>
       </c>
@@ -11790,7 +11795,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="604" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>1204</v>
       </c>
@@ -11798,7 +11803,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="605" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>1206</v>
       </c>
@@ -11806,7 +11811,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="606" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1208</v>
       </c>
@@ -11814,7 +11819,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="607" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1210</v>
       </c>
@@ -11822,7 +11827,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="608" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1212</v>
       </c>
@@ -11830,7 +11835,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="609" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>1214</v>
       </c>
@@ -11838,7 +11843,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="610" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>1216</v>
       </c>
@@ -11846,7 +11851,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="611" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>1218</v>
       </c>
@@ -11854,7 +11859,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="612" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1220</v>
       </c>
@@ -11862,7 +11867,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="613" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1222</v>
       </c>
@@ -11870,7 +11875,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="614" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1224</v>
       </c>
@@ -11878,7 +11883,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="615" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1226</v>
       </c>
@@ -11886,7 +11891,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="616" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1228</v>
       </c>
@@ -11894,7 +11899,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="617" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1230</v>
       </c>
@@ -11902,7 +11907,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="618" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1232</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="619" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1234</v>
       </c>
@@ -11918,7 +11923,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="620" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1236</v>
       </c>
@@ -11926,7 +11931,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="621" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1238</v>
       </c>
@@ -11934,7 +11939,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="622" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>1240</v>
       </c>
@@ -11942,7 +11947,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="623" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1242</v>
       </c>
@@ -11950,7 +11955,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="624" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1244</v>
       </c>
@@ -11958,7 +11963,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="625" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1246</v>
       </c>
@@ -11966,7 +11971,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="626" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>1248</v>
       </c>
@@ -11974,7 +11979,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="627" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1250</v>
       </c>
@@ -11982,7 +11987,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="628" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1252</v>
       </c>
@@ -11990,7 +11995,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="629" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1254</v>
       </c>
@@ -11998,7 +12003,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="630" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>1256</v>
       </c>
@@ -12006,7 +12011,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="631" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1258</v>
       </c>
@@ -12014,7 +12019,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="632" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1260</v>
       </c>
@@ -12022,7 +12027,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="633" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1262</v>
       </c>
@@ -12030,7 +12035,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="634" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>1264</v>
       </c>
@@ -12038,7 +12043,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="635" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>1266</v>
       </c>
@@ -12046,7 +12051,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="636" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1268</v>
       </c>
@@ -12054,7 +12059,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="637" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1270</v>
       </c>
@@ -12062,7 +12067,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="638" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1272</v>
       </c>
@@ -12070,7 +12075,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="639" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>1274</v>
       </c>
@@ -12078,7 +12083,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="640" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1276</v>
       </c>
@@ -12086,7 +12091,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="641" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1278</v>
       </c>
@@ -12094,23 +12099,23 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="642" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1280</v>
       </c>
       <c r="B642" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="643" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="2" t="s">
+      <c r="B643" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B643" s="2" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1283</v>
       </c>
@@ -12118,7 +12123,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="645" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>1285</v>
       </c>
@@ -12126,7 +12131,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="646" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1287</v>
       </c>
@@ -12134,7 +12139,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="647" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>1289</v>
       </c>
@@ -12142,7 +12147,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="648" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1291</v>
       </c>
@@ -12150,7 +12155,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="649" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1293</v>
       </c>
@@ -12158,7 +12163,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="650" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1295</v>
       </c>
@@ -12166,7 +12171,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="651" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1297</v>
       </c>
@@ -12174,7 +12179,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="652" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1299</v>
       </c>
@@ -12182,7 +12187,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="653" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1301</v>
       </c>
@@ -12190,7 +12195,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="654" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1303</v>
       </c>
@@ -12198,7 +12203,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="655" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1305</v>
       </c>
@@ -12206,7 +12211,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="656" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1307</v>
       </c>
@@ -12214,7 +12219,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="657" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1309</v>
       </c>
@@ -12222,7 +12227,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="658" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>1311</v>
       </c>
@@ -12230,7 +12235,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="659" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1313</v>
       </c>
@@ -12238,7 +12243,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="660" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1315</v>
       </c>
@@ -12246,7 +12251,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="661" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1317</v>
       </c>
@@ -12254,7 +12259,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="662" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1319</v>
       </c>
@@ -12262,7 +12267,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="663" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1321</v>
       </c>
@@ -12270,7 +12275,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="664" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>1323</v>
       </c>
@@ -12278,7 +12283,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="665" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1325</v>
       </c>
@@ -12286,7 +12291,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="666" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>1327</v>
       </c>
@@ -12294,7 +12299,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="667" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>1329</v>
       </c>
@@ -12302,7 +12307,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="668" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1331</v>
       </c>
@@ -12310,7 +12315,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="669" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1333</v>
       </c>
@@ -12318,7 +12323,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="670" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>1335</v>
       </c>
@@ -12326,7 +12331,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="671" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1337</v>
       </c>
@@ -12334,7 +12339,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="672" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>1339</v>
       </c>
@@ -12342,7 +12347,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="673" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>1341</v>
       </c>
@@ -12350,7 +12355,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="674" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>1343</v>
       </c>
@@ -12358,7 +12363,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="675" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>1345</v>
       </c>
@@ -12366,7 +12371,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="676" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>1347</v>
       </c>
@@ -12374,7 +12379,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="677" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>1349</v>
       </c>
@@ -12382,7 +12387,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="678" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>1351</v>
       </c>
@@ -12390,7 +12395,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="679" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>1353</v>
       </c>
@@ -12398,7 +12403,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="680" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1355</v>
       </c>
@@ -12406,7 +12411,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="681" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>1357</v>
       </c>
@@ -12414,7 +12419,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="682" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1359</v>
       </c>
@@ -12422,7 +12427,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="683" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>1361</v>
       </c>
@@ -12430,7 +12435,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="684" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1363</v>
       </c>
@@ -12438,7 +12443,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="685" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>1365</v>
       </c>
@@ -12446,7 +12451,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="686" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1367</v>
       </c>
@@ -12454,7 +12459,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="687" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1369</v>
       </c>
@@ -12462,7 +12467,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="688" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1371</v>
       </c>
@@ -12470,7 +12475,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="689" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1373</v>
       </c>
@@ -12478,7 +12483,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="690" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>1375</v>
       </c>
@@ -12486,7 +12491,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="691" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1377</v>
       </c>
@@ -12494,7 +12499,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="692" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>1379</v>
       </c>
@@ -12502,7 +12507,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="693" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1381</v>
       </c>
@@ -12510,7 +12515,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="694" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1383</v>
       </c>
@@ -12518,7 +12523,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="695" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1385</v>
       </c>
@@ -12526,7 +12531,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="696" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1387</v>
       </c>
@@ -12534,7 +12539,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="697" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>1389</v>
       </c>
@@ -12542,7 +12547,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="698" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>1391</v>
       </c>
@@ -12550,7 +12555,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="699" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>1393</v>
       </c>
@@ -12558,7 +12563,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="700" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>1395</v>
       </c>
@@ -12566,7 +12571,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="701" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>1397</v>
       </c>
@@ -12574,7 +12579,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="702" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>1399</v>
       </c>
@@ -12582,7 +12587,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="703" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>1401</v>
       </c>
@@ -12590,7 +12595,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="704" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>1403</v>
       </c>
@@ -12598,7 +12603,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="705" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>1405</v>
       </c>
@@ -12606,7 +12611,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="706" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>1407</v>
       </c>
@@ -12614,7 +12619,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="707" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>1409</v>
       </c>
@@ -12622,7 +12627,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="708" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>1411</v>
       </c>
@@ -12630,7 +12635,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="709" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>1413</v>
       </c>
@@ -12638,7 +12643,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="710" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>1415</v>
       </c>
@@ -12646,7 +12651,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="711" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>1417</v>
       </c>
@@ -12654,7 +12659,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="712" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>1419</v>
       </c>
@@ -12662,7 +12667,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="713" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>1421</v>
       </c>
@@ -12670,7 +12675,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="714" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>1423</v>
       </c>
@@ -12678,7 +12683,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="715" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>1425</v>
       </c>
@@ -12686,7 +12691,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="716" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>1427</v>
       </c>
@@ -12694,7 +12699,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="717" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>1429</v>
       </c>
@@ -12702,7 +12707,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="718" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>1431</v>
       </c>
@@ -12710,7 +12715,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="719" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>1433</v>
       </c>
@@ -12718,7 +12723,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="720" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>1435</v>
       </c>
@@ -12726,7 +12731,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="721" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>1437</v>
       </c>
@@ -12734,7 +12739,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="722" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>1439</v>
       </c>
@@ -12742,7 +12747,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="723" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>1441</v>
       </c>
@@ -12750,7 +12755,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="724" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>1443</v>
       </c>
@@ -12758,7 +12763,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="725" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>1445</v>
       </c>
@@ -12766,7 +12771,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="726" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>1447</v>
       </c>
@@ -12774,7 +12779,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="727" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>1449</v>
       </c>
@@ -12782,7 +12787,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="728" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>1451</v>
       </c>
@@ -12790,7 +12795,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="729" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>1453</v>
       </c>
@@ -12798,7 +12803,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="730" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>1455</v>
       </c>
@@ -12806,7 +12811,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="731" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>1457</v>
       </c>
@@ -12814,7 +12819,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="732" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>1459</v>
       </c>
@@ -12822,7 +12827,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="733" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>1461</v>
       </c>
@@ -12830,7 +12835,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="734" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>1463</v>
       </c>
@@ -12838,7 +12843,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="735" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>1465</v>
       </c>
@@ -12846,7 +12851,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="736" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>1467</v>
       </c>
@@ -12854,7 +12859,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="737" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>1469</v>
       </c>
@@ -12862,7 +12867,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="738" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>1471</v>
       </c>
@@ -12870,7 +12875,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="739" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>1473</v>
       </c>
@@ -12878,7 +12883,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="740" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>1475</v>
       </c>
@@ -12886,7 +12891,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="741" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>1477</v>
       </c>
@@ -12894,7 +12899,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="742" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>1479</v>
       </c>
@@ -12902,7 +12907,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="743" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>1481</v>
       </c>
@@ -12910,7 +12915,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="744" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>1483</v>
       </c>
@@ -12918,7 +12923,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="745" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>1485</v>
       </c>
@@ -12926,7 +12931,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="746" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>1487</v>
       </c>
@@ -12934,7 +12939,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="747" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>1489</v>
       </c>
@@ -12942,7 +12947,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="748" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>1491</v>
       </c>
@@ -12950,7 +12955,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="749" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>1493</v>
       </c>
@@ -12958,7 +12963,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="750" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>1495</v>
       </c>
@@ -12966,7 +12971,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="751" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>1497</v>
       </c>
@@ -12974,7 +12979,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="752" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>1499</v>
       </c>
@@ -12982,7 +12987,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="753" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>1501</v>
       </c>
@@ -12990,7 +12995,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="754" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>1503</v>
       </c>
@@ -12998,7 +13003,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="755" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>1505</v>
       </c>
@@ -13006,7 +13011,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="756" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>1507</v>
       </c>
@@ -13014,7 +13019,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="757" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>1509</v>
       </c>
@@ -13022,7 +13027,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="758" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>1511</v>
       </c>
@@ -13030,7 +13035,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="759" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>1513</v>
       </c>
@@ -13038,7 +13043,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="760" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>1515</v>
       </c>
@@ -13046,7 +13051,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="761" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>1517</v>
       </c>
@@ -13054,7 +13059,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="762" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>1519</v>
       </c>
@@ -13062,7 +13067,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="763" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>1521</v>
       </c>
@@ -13070,7 +13075,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="764" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>1523</v>
       </c>
@@ -13078,7 +13083,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="765" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>1525</v>
       </c>
@@ -13086,7 +13091,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="766" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>1527</v>
       </c>
@@ -13094,7 +13099,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="767" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>1529</v>
       </c>
@@ -13102,7 +13107,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="768" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>1531</v>
       </c>
@@ -13110,7 +13115,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="769" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>1533</v>
       </c>
@@ -13118,7 +13123,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="770" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>1535</v>
       </c>
@@ -13126,7 +13131,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="771" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>1537</v>
       </c>
@@ -13134,7 +13139,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="772" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>1539</v>
       </c>
@@ -13142,7 +13147,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="773" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>1541</v>
       </c>
@@ -13150,7 +13155,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="774" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>1543</v>
       </c>
@@ -13158,7 +13163,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="775" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>1545</v>
       </c>
@@ -13166,7 +13171,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="776" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>1547</v>
       </c>
@@ -13174,7 +13179,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="777" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
         <v>1549</v>
       </c>
@@ -13182,7 +13187,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="778" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>1551</v>
       </c>
@@ -13190,7 +13195,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="779" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
         <v>1553</v>
       </c>
@@ -13198,7 +13203,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="780" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
         <v>1555</v>
       </c>
@@ -13206,7 +13211,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="781" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
         <v>1557</v>
       </c>
@@ -13214,7 +13219,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="782" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
         <v>1559</v>
       </c>
@@ -13222,7 +13227,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="783" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>1561</v>
       </c>
@@ -13230,7 +13235,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="784" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>1563</v>
       </c>
@@ -13238,7 +13243,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="785" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
         <v>1565</v>
       </c>
@@ -13246,7 +13251,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="786" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>1567</v>
       </c>
@@ -13254,7 +13259,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="787" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>1569</v>
       </c>
@@ -13262,7 +13267,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="788" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
         <v>1571</v>
       </c>
@@ -13270,7 +13275,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="789" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
         <v>1573</v>
       </c>
@@ -13278,7 +13283,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="790" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
         <v>1575</v>
       </c>
@@ -13286,7 +13291,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="791" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
         <v>1577</v>
       </c>
@@ -13294,7 +13299,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="792" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
         <v>1579</v>
       </c>
@@ -13302,7 +13307,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="793" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>1581</v>
       </c>
@@ -13310,7 +13315,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="794" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>1583</v>
       </c>
@@ -13318,7 +13323,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="795" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>1585</v>
       </c>
@@ -13326,7 +13331,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="796" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
         <v>1587</v>
       </c>
@@ -13334,7 +13339,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="797" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>1589</v>
       </c>
@@ -13342,7 +13347,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="798" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>1591</v>
       </c>
@@ -13350,7 +13355,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="799" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>1593</v>
       </c>
@@ -13358,7 +13363,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="800" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>1595</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="801" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>1597</v>
       </c>
@@ -13374,7 +13379,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="802" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>1599</v>
       </c>
@@ -13382,7 +13387,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="803" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>1601</v>
       </c>
@@ -13390,7 +13395,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="804" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
         <v>1603</v>
       </c>
@@ -13398,7 +13403,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="805" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>1605</v>
       </c>
@@ -13406,7 +13411,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="806" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>1607</v>
       </c>
@@ -13414,7 +13419,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="807" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>1609</v>
       </c>
@@ -13422,7 +13427,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="808" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
         <v>1611</v>
       </c>
@@ -13430,7 +13435,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="809" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>1613</v>
       </c>
@@ -13438,7 +13443,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="810" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>1615</v>
       </c>
@@ -13446,7 +13451,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="811" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>1617</v>
       </c>
@@ -13454,7 +13459,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="812" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>1619</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="813" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>1621</v>
       </c>
@@ -13470,7 +13475,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="814" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>1623</v>
       </c>
@@ -13478,7 +13483,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="815" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>1625</v>
       </c>
@@ -13486,7 +13491,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="816" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>1627</v>
       </c>
@@ -13494,7 +13499,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="817" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>1629</v>
       </c>
@@ -13502,7 +13507,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="818" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>1631</v>
       </c>
@@ -13510,7 +13515,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="819" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>1633</v>
       </c>
@@ -13518,7 +13523,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="820" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>1635</v>
       </c>
@@ -13526,7 +13531,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="821" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>1637</v>
       </c>
@@ -13534,7 +13539,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="822" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>1639</v>
       </c>
@@ -13542,7 +13547,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="823" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>1641</v>
       </c>
@@ -13550,7 +13555,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="824" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>1643</v>
       </c>
@@ -13558,7 +13563,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="825" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
         <v>1645</v>
       </c>
@@ -13566,7 +13571,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="826" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>1647</v>
       </c>
@@ -13574,7 +13579,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="827" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
         <v>1649</v>
       </c>
@@ -13582,7 +13587,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="828" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>1651</v>
       </c>
@@ -13590,7 +13595,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="829" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>1653</v>
       </c>
@@ -13598,7 +13603,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="830" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>1655</v>
       </c>
@@ -13606,7 +13611,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="831" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>1657</v>
       </c>
@@ -13614,7 +13619,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="832" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>1659</v>
       </c>
@@ -13622,7 +13627,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="833" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>1661</v>
       </c>
@@ -13630,7 +13635,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="834" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>1663</v>
       </c>
@@ -13638,7 +13643,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="835" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>1665</v>
       </c>
@@ -13646,7 +13651,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="836" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>1667</v>
       </c>
@@ -13654,7 +13659,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="837" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>1669</v>
       </c>
@@ -13662,7 +13667,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="838" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
         <v>1671</v>
       </c>
@@ -13670,7 +13675,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="839" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
         <v>1673</v>
       </c>
@@ -13678,7 +13683,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="840" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>1675</v>
       </c>
@@ -13686,7 +13691,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="841" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>1677</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="842" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>1679</v>
       </c>
@@ -13702,7 +13707,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="843" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>1681</v>
       </c>
@@ -13710,7 +13715,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="844" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>1683</v>
       </c>
@@ -13718,7 +13723,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="845" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>1685</v>
       </c>
@@ -13726,7 +13731,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="846" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>1687</v>
       </c>
@@ -13734,7 +13739,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="847" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>1689</v>
       </c>
@@ -13742,7 +13747,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="848" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>1691</v>
       </c>
@@ -13750,7 +13755,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="849" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>1693</v>
       </c>
@@ -13758,7 +13763,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="850" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>1695</v>
       </c>
@@ -13766,7 +13771,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="851" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>1697</v>
       </c>
@@ -13774,7 +13779,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="852" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>1699</v>
       </c>
@@ -13782,7 +13787,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="853" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>1701</v>
       </c>
@@ -13790,7 +13795,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="854" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>1703</v>
       </c>
@@ -13798,7 +13803,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="855" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>1705</v>
       </c>
@@ -13806,7 +13811,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="856" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>1707</v>
       </c>
@@ -13814,7 +13819,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="857" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>1709</v>
       </c>
@@ -13822,7 +13827,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="858" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>1711</v>
       </c>
@@ -13830,7 +13835,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="859" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>1713</v>
       </c>
@@ -13838,7 +13843,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="860" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>1715</v>
       </c>
@@ -13846,7 +13851,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="861" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>1717</v>
       </c>
@@ -13854,7 +13859,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="862" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>1719</v>
       </c>
@@ -13862,7 +13867,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="863" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>1721</v>
       </c>
@@ -13870,7 +13875,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="864" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>1723</v>
       </c>
@@ -13878,7 +13883,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="865" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>1725</v>
       </c>
@@ -13886,7 +13891,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="866" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>1727</v>
       </c>
@@ -13894,7 +13899,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="867" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>1729</v>
       </c>
@@ -13902,7 +13907,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="868" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>1731</v>
       </c>
@@ -13910,7 +13915,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="869" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>1733</v>
       </c>
@@ -13918,7 +13923,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="870" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>1735</v>
       </c>
@@ -13926,7 +13931,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="871" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>1737</v>
       </c>
@@ -13934,7 +13939,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="872" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>1739</v>
       </c>
@@ -13942,7 +13947,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="873" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>1741</v>
       </c>
@@ -13950,7 +13955,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="874" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>1743</v>
       </c>
@@ -13958,7 +13963,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="875" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>1745</v>
       </c>
@@ -13966,7 +13971,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="876" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>1747</v>
       </c>
@@ -13974,7 +13979,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="877" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>1749</v>
       </c>
@@ -13982,7 +13987,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="878" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>1751</v>
       </c>
@@ -13990,7 +13995,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="879" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>1753</v>
       </c>
@@ -13998,7 +14003,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="880" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>1755</v>
       </c>
@@ -14006,7 +14011,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="881" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>1757</v>
       </c>
@@ -14014,7 +14019,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="882" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>1759</v>
       </c>
@@ -14022,7 +14027,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="883" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>1761</v>
       </c>
@@ -14030,7 +14035,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="884" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>1763</v>
       </c>
@@ -14038,7 +14043,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="885" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>1765</v>
       </c>
@@ -14046,7 +14051,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="886" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>1767</v>
       </c>
@@ -14054,7 +14059,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="887" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>1769</v>
       </c>
@@ -14062,7 +14067,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="888" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>1771</v>
       </c>
@@ -14070,7 +14075,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="889" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>1773</v>
       </c>
@@ -14078,7 +14083,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="890" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>1775</v>
       </c>
@@ -14086,7 +14091,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="891" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>1777</v>
       </c>
@@ -14094,7 +14099,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="892" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>1779</v>
       </c>
@@ -14102,7 +14107,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="893" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>1781</v>
       </c>
@@ -14110,7 +14115,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="894" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>1783</v>
       </c>
@@ -14118,7 +14123,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="895" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>1785</v>
       </c>
@@ -14126,7 +14131,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="896" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>1787</v>
       </c>
@@ -14134,7 +14139,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="897" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>1789</v>
       </c>
@@ -14142,7 +14147,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="898" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>1791</v>
       </c>
@@ -14150,7 +14155,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="899" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>1793</v>
       </c>
@@ -14158,7 +14163,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="900" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>1795</v>
       </c>
@@ -14166,7 +14171,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="901" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>1797</v>
       </c>
@@ -14174,7 +14179,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="902" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>1799</v>
       </c>
@@ -14182,7 +14187,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="903" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>1801</v>
       </c>
@@ -14190,7 +14195,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="904" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>1803</v>
       </c>
@@ -14198,7 +14203,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="905" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>1805</v>
       </c>
@@ -14206,7 +14211,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="906" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" s="2" customFormat="1" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>1807</v>
       </c>
@@ -14214,7 +14219,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="907" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>1809</v>
       </c>
@@ -14222,7 +14227,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="908" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>1811</v>
       </c>
@@ -14230,7 +14235,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="909" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>1813</v>
       </c>
@@ -14238,7 +14243,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="910" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>1815</v>
       </c>
@@ -14246,7 +14251,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="911" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>1817</v>
       </c>
@@ -14254,7 +14259,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="912" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>1819</v>
       </c>
@@ -14262,7 +14267,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="913" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>1821</v>
       </c>
@@ -14270,7 +14275,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="914" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>1823</v>
       </c>
@@ -14278,7 +14283,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="915" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>1825</v>
       </c>
@@ -14286,7 +14291,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="916" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>1827</v>
       </c>
@@ -14294,7 +14299,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="917" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>1829</v>
       </c>
@@ -14302,7 +14307,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="918" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>1831</v>
       </c>
@@ -14310,7 +14315,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="919" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
         <v>1833</v>
       </c>
@@ -14318,7 +14323,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="920" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
         <v>1835</v>
       </c>
@@ -14326,7 +14331,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="921" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
         <v>1837</v>
       </c>
@@ -14334,7 +14339,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="922" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>1839</v>
       </c>
@@ -14342,7 +14347,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="923" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
         <v>1841</v>
       </c>
@@ -14350,7 +14355,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="924" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
         <v>1843</v>
       </c>
@@ -14358,7 +14363,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="925" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
         <v>1845</v>
       </c>
@@ -14366,7 +14371,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="926" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>1847</v>
       </c>
@@ -14374,7 +14379,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="927" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
         <v>1849</v>
       </c>
@@ -14382,7 +14387,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="928" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
         <v>1851</v>
       </c>
@@ -14390,7 +14395,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="929" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
         <v>1853</v>
       </c>
@@ -14398,7 +14403,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="930" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
         <v>1855</v>
       </c>
@@ -14406,7 +14411,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="931" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>1857</v>
       </c>
@@ -14414,7 +14419,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="932" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>1859</v>
       </c>
@@ -14422,7 +14427,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="933" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>1861</v>
       </c>
@@ -14430,7 +14435,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="934" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
         <v>1863</v>
       </c>
@@ -14438,7 +14443,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="935" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
         <v>1865</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="936" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
         <v>1867</v>
       </c>
@@ -14454,7 +14459,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="937" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
         <v>1869</v>
       </c>
@@ -14462,7 +14467,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="938" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
         <v>1871</v>
       </c>
@@ -14470,7 +14475,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="939" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
         <v>1873</v>
       </c>
@@ -14478,7 +14483,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="940" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
         <v>1875</v>
       </c>
@@ -14486,7 +14491,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="941" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
         <v>1877</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="942" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
         <v>1879</v>
       </c>
@@ -14502,7 +14507,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="943" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
         <v>1881</v>
       </c>
@@ -14510,7 +14515,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="944" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
         <v>1883</v>
       </c>
@@ -14518,7 +14523,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="945" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
         <v>1885</v>
       </c>
@@ -14526,7 +14531,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="946" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
         <v>1887</v>
       </c>
@@ -14534,7 +14539,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="947" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>1889</v>
       </c>
@@ -14542,7 +14547,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="948" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
         <v>1891</v>
       </c>
@@ -14550,7 +14555,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="949" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
         <v>1893</v>
       </c>
@@ -14558,7 +14563,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="950" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
         <v>1895</v>
       </c>
@@ -14566,7 +14571,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="951" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
         <v>1897</v>
       </c>
@@ -14574,7 +14579,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="952" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
         <v>1899</v>
       </c>
@@ -14582,7 +14587,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="953" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
         <v>1901</v>
       </c>
@@ -14590,7 +14595,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="954" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
         <v>1903</v>
       </c>
@@ -14598,7 +14603,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="955" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
         <v>1905</v>
       </c>
@@ -14606,7 +14611,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="956" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
         <v>1907</v>
       </c>
@@ -14614,7 +14619,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="957" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
         <v>1909</v>
       </c>
@@ -14622,7 +14627,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="958" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
         <v>1911</v>
       </c>
@@ -14630,7 +14635,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="959" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
         <v>1913</v>
       </c>
@@ -14638,7 +14643,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="960" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>1915</v>
       </c>
@@ -14646,7 +14651,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="961" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
         <v>1917</v>
       </c>
@@ -14654,7 +14659,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="962" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
         <v>1919</v>
       </c>
@@ -14662,7 +14667,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="963" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
         <v>1921</v>
       </c>
@@ -14670,7 +14675,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="964" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
         <v>1923</v>
       </c>
@@ -14678,7 +14683,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="965" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
         <v>1925</v>
       </c>
@@ -14686,7 +14691,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="966" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
         <v>1927</v>
       </c>
@@ -14694,7 +14699,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="967" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
         <v>1929</v>
       </c>
@@ -14702,7 +14707,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="968" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
         <v>1931</v>
       </c>
@@ -14710,7 +14715,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="969" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
         <v>1933</v>
       </c>
@@ -14718,7 +14723,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="970" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
         <v>1935</v>
       </c>
@@ -14726,7 +14731,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="971" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
         <v>1937</v>
       </c>
@@ -14734,7 +14739,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="972" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
         <v>1939</v>
       </c>
@@ -14742,7 +14747,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="973" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
         <v>1941</v>
       </c>
@@ -14750,7 +14755,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="974" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
         <v>1943</v>
       </c>
@@ -14758,7 +14763,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="975" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
         <v>1945</v>
       </c>
@@ -14766,7 +14771,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="976" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
         <v>1947</v>
       </c>
@@ -14774,7 +14779,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="977" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
         <v>1949</v>
       </c>
@@ -14782,7 +14787,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="978" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
         <v>1951</v>
       </c>
@@ -14790,7 +14795,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="979" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
         <v>1953</v>
       </c>
@@ -14798,7 +14803,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="980" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
         <v>1955</v>
       </c>
@@ -14806,7 +14811,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="981" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
         <v>1957</v>
       </c>
@@ -14814,7 +14819,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="982" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
         <v>1959</v>
       </c>
@@ -14822,7 +14827,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="983" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
         <v>1961</v>
       </c>
@@ -14830,7 +14835,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="984" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
         <v>1963</v>
       </c>
@@ -14838,7 +14843,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="985" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
         <v>1965</v>
       </c>
@@ -14846,7 +14851,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="986" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
         <v>1967</v>
       </c>
@@ -14854,7 +14859,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="987" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
         <v>1969</v>
       </c>
@@ -14862,7 +14867,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="988" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
         <v>1971</v>
       </c>
@@ -14870,7 +14875,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="989" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
         <v>1973</v>
       </c>
@@ -14878,7 +14883,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="990" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
         <v>1975</v>
       </c>
@@ -14886,7 +14891,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="991" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
         <v>1977</v>
       </c>
@@ -14894,7 +14899,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="992" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
         <v>1979</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="993" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A993" s="2" t="s">
         <v>1981</v>
       </c>
@@ -14910,7 +14915,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="994" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A994" s="2" t="s">
         <v>1983</v>
       </c>
@@ -14918,7 +14923,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="995" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
         <v>1985</v>
       </c>
@@ -14926,7 +14931,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="996" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
         <v>1987</v>
       </c>
@@ -14934,7 +14939,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="997" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A997" s="2" t="s">
         <v>1989</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="998" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A998" s="2" t="s">
         <v>1991</v>
       </c>
@@ -14950,7 +14955,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="999" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A999" s="2" t="s">
         <v>1993</v>
       </c>
@@ -14958,7 +14963,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1000" s="2" t="s">
         <v>1995</v>
       </c>
@@ -14966,7 +14971,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
         <v>1997</v>
       </c>
@@ -14974,7 +14979,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1002" s="2" t="s">
         <v>1999</v>
       </c>
@@ -14982,7 +14987,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1003" s="2" t="s">
         <v>2001</v>
       </c>
@@ -14990,7 +14995,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
         <v>2003</v>
       </c>
@@ -14998,7 +15003,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1005" s="2" t="s">
         <v>2005</v>
       </c>
@@ -15006,7 +15011,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
         <v>2007</v>
       </c>
@@ -15014,7 +15019,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A1007" s="2" t="s">
         <v>2009</v>
       </c>
@@ -15022,7 +15027,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="1008" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1008" s="2" t="s">
         <v>2011</v>
       </c>
@@ -15030,7 +15035,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1009" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1009" s="2" t="s">
         <v>2013</v>
       </c>
@@ -15038,7 +15043,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
         <v>2015</v>
       </c>
@@ -15046,7 +15051,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
         <v>2017</v>
       </c>
@@ -15054,7 +15059,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
         <v>2019</v>
       </c>
@@ -15062,23 +15067,23 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1013" s="2" t="s">
         <v>2021</v>
       </c>
       <c r="B1013" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="1014" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1014" s="2" t="s">
+      <c r="B1014" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="B1014" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1015" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
         <v>2024</v>
       </c>
@@ -15086,7 +15091,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
         <v>2026</v>
       </c>
@@ -15094,7 +15099,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
         <v>2028</v>
       </c>
@@ -15102,7 +15107,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
         <v>2030</v>
       </c>
@@ -15110,7 +15115,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
         <v>2032</v>
       </c>
@@ -15118,7 +15123,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
         <v>2034</v>
       </c>
@@ -15126,7 +15131,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="1021" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
         <v>2036</v>
       </c>
@@ -15134,7 +15139,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
         <v>2038</v>
       </c>
@@ -15142,7 +15147,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
         <v>2040</v>
       </c>
@@ -15150,7 +15155,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="2" t="s">
         <v>2042</v>
       </c>
@@ -15158,7 +15163,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
         <v>2044</v>
       </c>
@@ -15166,7 +15171,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
         <v>2046</v>
       </c>
@@ -15174,7 +15179,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
         <v>2048</v>
       </c>
@@ -15182,7 +15187,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
         <v>2050</v>
       </c>
@@ -15190,7 +15195,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1029" s="2" t="s">
         <v>2052</v>
       </c>
@@ -15198,7 +15203,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
         <v>2054</v>
       </c>
@@ -15206,7 +15211,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
         <v>2056</v>
       </c>
@@ -15214,7 +15219,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1032" s="2" t="s">
         <v>2058</v>
       </c>
@@ -15222,7 +15227,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1033" s="2" t="s">
         <v>2060</v>
       </c>
@@ -15230,7 +15235,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1034" s="2" t="s">
         <v>2062</v>
       </c>
@@ -15238,7 +15243,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1035" s="2" t="s">
         <v>2064</v>
       </c>
@@ -15246,7 +15251,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
         <v>2066</v>
       </c>
@@ -15254,7 +15259,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1037" s="2" t="s">
         <v>2068</v>
       </c>
@@ -15262,7 +15267,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="2" t="s">
         <v>2070</v>
       </c>
@@ -15270,7 +15275,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
         <v>2072</v>
       </c>
@@ -15278,7 +15283,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
         <v>2074</v>
       </c>
@@ -15286,7 +15291,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1041" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
         <v>2076</v>
       </c>
@@ -15294,7 +15299,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="1042" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
         <v>2078</v>
       </c>
@@ -15302,7 +15307,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="1043" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
         <v>2080</v>
       </c>
@@ -15310,7 +15315,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="1044" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
         <v>2082</v>
       </c>
@@ -15318,7 +15323,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="1045" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
         <v>2084</v>
       </c>
@@ -15326,7 +15331,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="1046" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
         <v>2086</v>
       </c>
@@ -15334,7 +15339,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="1047" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1047" s="2" t="s">
         <v>2088</v>
       </c>
@@ -15342,7 +15347,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="1048" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="2" t="s">
         <v>2090</v>
       </c>
@@ -15350,7 +15355,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="1049" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1049" s="2" t="s">
         <v>2092</v>
       </c>
@@ -15358,7 +15363,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1050" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
         <v>2094</v>
       </c>
@@ -15366,7 +15371,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="1051" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
         <v>2096</v>
       </c>
@@ -15374,7 +15379,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="1052" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="2" t="s">
         <v>2098</v>
       </c>
@@ -15382,7 +15387,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="1053" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
         <v>2100</v>
       </c>
@@ -15390,7 +15395,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="1054" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
         <v>2102</v>
       </c>
@@ -15398,7 +15403,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="1055" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
         <v>2104</v>
       </c>
@@ -15406,7 +15411,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="1056" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
         <v>2106</v>
       </c>
@@ -15414,7 +15419,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="1057" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1057" s="2" t="s">
         <v>2108</v>
       </c>
@@ -15422,7 +15427,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="1058" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="2" t="s">
         <v>2110</v>
       </c>
@@ -15430,7 +15435,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="1059" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="2" t="s">
         <v>2112</v>
       </c>
@@ -15438,7 +15443,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="1060" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1060" s="2" t="s">
         <v>2114</v>
       </c>
@@ -15446,7 +15451,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="1061" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="2" t="s">
         <v>2116</v>
       </c>
@@ -15454,7 +15459,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="1062" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A1062" s="2" t="s">
         <v>2118</v>
       </c>
@@ -15462,7 +15467,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="1063" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A1063" s="2" t="s">
         <v>2120</v>
       </c>
@@ -15470,7 +15475,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="1064" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1064" s="2" t="s">
         <v>2122</v>
       </c>
@@ -15478,7 +15483,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="1065" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1065" s="2" t="s">
         <v>2124</v>
       </c>
@@ -15486,7 +15491,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="1066" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
         <v>2126</v>
       </c>
@@ -15494,7 +15499,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="1067" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1067" s="2" t="s">
         <v>2128</v>
       </c>
@@ -15502,7 +15507,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="1068" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1068" s="2" t="s">
         <v>2130</v>
       </c>
@@ -15510,7 +15515,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="1069" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="2" t="s">
         <v>2132</v>
       </c>
@@ -15518,7 +15523,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="1070" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1070" s="2" t="s">
         <v>2134</v>
       </c>
@@ -15526,7 +15531,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="1071" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1071" s="2" t="s">
         <v>2136</v>
       </c>
@@ -15534,7 +15539,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="1072" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1072" s="2" t="s">
         <v>2138</v>
       </c>
@@ -15542,7 +15547,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="1073" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1073" s="2" t="s">
         <v>2140</v>
       </c>
@@ -15550,7 +15555,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="1074" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1074" s="2" t="s">
         <v>2142</v>
       </c>
@@ -15558,7 +15563,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="1075" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1075" s="2" t="s">
         <v>2144</v>
       </c>
@@ -15566,7 +15571,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="1076" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
         <v>2146</v>
       </c>
@@ -15574,7 +15579,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="1077" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="2" t="s">
         <v>2148</v>
       </c>
@@ -15582,7 +15587,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="1078" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1078" s="2" t="s">
         <v>2150</v>
       </c>
@@ -15590,7 +15595,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="1079" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1079" s="2" t="s">
         <v>2152</v>
       </c>
@@ -15598,7 +15603,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="1080" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A1080" s="2" t="s">
         <v>2154</v>
       </c>
@@ -15606,7 +15611,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1081" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1081" s="2" t="s">
         <v>2156</v>
       </c>
@@ -15614,7 +15619,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="1082" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:2" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A1082" s="2" t="s">
         <v>2158</v>
       </c>
@@ -15622,7 +15627,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="1083" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1083" s="2" t="s">
         <v>2160</v>
       </c>
@@ -15630,7 +15635,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="1084" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1084" s="2" t="s">
         <v>2162</v>
       </c>
@@ -15638,7 +15643,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="1085" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1085" s="2" t="s">
         <v>2164</v>
       </c>
@@ -15646,7 +15651,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="1086" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
         <v>2166</v>
       </c>
@@ -15654,16 +15659,8 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="1087" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="2" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B1087" s="2" t="s">
-        <v>2169</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/flashcards/Memcode - Latein - Fachvokabular Jus - Multiple Choice (JKU, Austria).xlsx
+++ b/flashcards/Memcode - Latein - Fachvokabular Jus - Multiple Choice (JKU, Austria).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD325EB0-386E-45EF-8FB1-2D86E7909B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE668B8-E7B9-4120-8D97-A67F8B6D2CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4349,9 +4349,6 @@
     <t>aus einer verwerflichen Sache entsteht keine Klage</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;ex tune:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;über das Mögliche hinaus wird niemand verpflichtet&lt;/li&gt;&lt;li&gt;wer sein Recht ausübt, schädigt niemanden&lt;/li&gt;&lt;li&gt;einjahrig befristetes Klagerecht&lt;/li&gt;&lt;li&gt;vom damaligen Zeitpunkt an&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>vom damaligen Zeitpunkt an</t>
   </si>
   <si>
@@ -6569,6 +6566,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Recht, sein Vieh über fremden Grund zu treiben - Feldservitut (allgemein: Rechtsakt, Geschäft)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;ex tunc:&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;über das Mögliche hinaus wird niemand verpflichtet&lt;/li&gt;&lt;li&gt;wer sein Recht ausübt, schädigt niemanden&lt;/li&gt;&lt;li&gt;einjahrig befristetes Klagerecht&lt;/li&gt;&lt;li&gt;vom damaligen Zeitpunkt an&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -6962,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+    <sheetView tabSelected="1" topLeftCell="A720" workbookViewId="0">
+      <selection activeCell="A722" sqref="A722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12733,2343 +12733,2343 @@
     </row>
     <row r="721" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B721" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="B721" s="2" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="722" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B722" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="B722" s="2" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="723" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B723" s="2" t="s">
         <v>1441</v>
-      </c>
-      <c r="B723" s="2" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="724" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B724" s="2" t="s">
         <v>1443</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="725" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B725" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="B725" s="2" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="726" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B726" s="2" t="s">
         <v>1447</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="727" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B727" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="B727" s="2" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="728" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B728" s="2" t="s">
         <v>1451</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="729" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B729" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="B729" s="2" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="730" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B730" s="2" t="s">
         <v>1455</v>
-      </c>
-      <c r="B730" s="2" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="731" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B731" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="B731" s="2" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="732" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B732" s="2" t="s">
         <v>1459</v>
-      </c>
-      <c r="B732" s="2" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="733" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B733" s="2" t="s">
         <v>1461</v>
-      </c>
-      <c r="B733" s="2" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="734" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B734" s="2" t="s">
         <v>1463</v>
-      </c>
-      <c r="B734" s="2" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="735" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B735" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="B735" s="2" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="736" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B736" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="B736" s="2" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="737" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B737" s="2" t="s">
         <v>1469</v>
-      </c>
-      <c r="B737" s="2" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="738" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B738" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="739" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B739" s="2" t="s">
         <v>1473</v>
-      </c>
-      <c r="B739" s="2" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="740" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B740" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="B740" s="2" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="741" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B741" s="2" t="s">
         <v>1477</v>
-      </c>
-      <c r="B741" s="2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="742" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B742" s="2" t="s">
         <v>1479</v>
-      </c>
-      <c r="B742" s="2" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="743" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B743" s="2" t="s">
         <v>1481</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="744" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B744" s="2" t="s">
         <v>1483</v>
-      </c>
-      <c r="B744" s="2" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="745" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B745" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B745" s="2" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B746" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="B746" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="747" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B747" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="B747" s="2" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="748" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B748" s="2" t="s">
         <v>1491</v>
-      </c>
-      <c r="B748" s="2" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="749" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B749" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="B749" s="2" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="750" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B750" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="B750" s="2" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="751" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B751" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="B751" s="2" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="752" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B752" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="B752" s="2" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B753" s="2" t="s">
         <v>1501</v>
-      </c>
-      <c r="B753" s="2" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="754" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B754" s="2" t="s">
         <v>1503</v>
-      </c>
-      <c r="B754" s="2" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="755" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B755" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="B755" s="2" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="756" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B756" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="B756" s="2" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="757" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B757" s="2" t="s">
         <v>1509</v>
-      </c>
-      <c r="B757" s="2" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="758" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B758" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="B758" s="2" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="759" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B759" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="B759" s="2" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="760" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B760" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="B760" s="2" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="761" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B761" s="2" t="s">
         <v>1517</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="762" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B762" s="2" t="s">
         <v>1519</v>
-      </c>
-      <c r="B762" s="2" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="763" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B763" s="2" t="s">
         <v>1521</v>
-      </c>
-      <c r="B763" s="2" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="764" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B764" s="2" t="s">
         <v>1523</v>
-      </c>
-      <c r="B764" s="2" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="765" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B765" s="2" t="s">
         <v>1525</v>
-      </c>
-      <c r="B765" s="2" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="766" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B766" s="2" t="s">
         <v>1527</v>
-      </c>
-      <c r="B766" s="2" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="767" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B767" s="2" t="s">
         <v>1529</v>
-      </c>
-      <c r="B767" s="2" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="768" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B768" s="2" t="s">
         <v>1531</v>
-      </c>
-      <c r="B768" s="2" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="769" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B769" s="2" t="s">
         <v>1533</v>
-      </c>
-      <c r="B769" s="2" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="770" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B770" s="2" t="s">
         <v>1535</v>
-      </c>
-      <c r="B770" s="2" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="771" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B771" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="772" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B772" s="2" t="s">
         <v>1539</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="773" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B773" s="2" t="s">
         <v>1541</v>
-      </c>
-      <c r="B773" s="2" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="774" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B774" s="2" t="s">
         <v>1543</v>
-      </c>
-      <c r="B774" s="2" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="775" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B775" s="2" t="s">
         <v>1545</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="776" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B776" s="2" t="s">
         <v>1547</v>
-      </c>
-      <c r="B776" s="2" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="777" spans="1:2" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B777" s="2" t="s">
         <v>1549</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="778" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B778" s="2" t="s">
         <v>1551</v>
-      </c>
-      <c r="B778" s="2" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="779" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B779" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="780" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B780" s="2" t="s">
         <v>1555</v>
-      </c>
-      <c r="B780" s="2" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="781" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B781" s="2" t="s">
         <v>1557</v>
-      </c>
-      <c r="B781" s="2" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="782" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B782" s="2" t="s">
         <v>1559</v>
-      </c>
-      <c r="B782" s="2" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="783" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B783" s="2" t="s">
         <v>1561</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="784" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B784" s="2" t="s">
         <v>1563</v>
-      </c>
-      <c r="B784" s="2" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="785" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B785" s="2" t="s">
         <v>1565</v>
-      </c>
-      <c r="B785" s="2" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="786" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B786" s="2" t="s">
         <v>1567</v>
-      </c>
-      <c r="B786" s="2" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="787" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B787" s="2" t="s">
         <v>1569</v>
-      </c>
-      <c r="B787" s="2" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="788" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B788" s="2" t="s">
         <v>1571</v>
-      </c>
-      <c r="B788" s="2" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="789" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B789" s="2" t="s">
         <v>1573</v>
-      </c>
-      <c r="B789" s="2" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="790" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B790" s="2" t="s">
         <v>1575</v>
-      </c>
-      <c r="B790" s="2" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="791" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B791" s="2" t="s">
         <v>1577</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="792" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B792" s="2" t="s">
         <v>1579</v>
-      </c>
-      <c r="B792" s="2" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="793" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B793" s="2" t="s">
         <v>1581</v>
-      </c>
-      <c r="B793" s="2" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="794" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B794" s="2" t="s">
         <v>1583</v>
-      </c>
-      <c r="B794" s="2" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="795" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B795" s="2" t="s">
         <v>1585</v>
-      </c>
-      <c r="B795" s="2" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="796" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B796" s="2" t="s">
         <v>1587</v>
-      </c>
-      <c r="B796" s="2" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="797" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B797" s="2" t="s">
         <v>1589</v>
-      </c>
-      <c r="B797" s="2" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="798" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B798" s="2" t="s">
         <v>1591</v>
-      </c>
-      <c r="B798" s="2" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="799" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B799" s="2" t="s">
         <v>1593</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="800" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B800" s="2" t="s">
         <v>1595</v>
-      </c>
-      <c r="B800" s="2" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="801" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B801" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="B801" s="2" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="802" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B802" s="2" t="s">
         <v>1599</v>
-      </c>
-      <c r="B802" s="2" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="803" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B803" s="2" t="s">
         <v>1601</v>
-      </c>
-      <c r="B803" s="2" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="804" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B804" s="2" t="s">
         <v>1603</v>
-      </c>
-      <c r="B804" s="2" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="805" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B805" s="2" t="s">
         <v>1605</v>
-      </c>
-      <c r="B805" s="2" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="806" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B806" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="807" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B807" s="2" t="s">
         <v>1609</v>
-      </c>
-      <c r="B807" s="2" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="808" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B808" s="2" t="s">
         <v>1611</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="809" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B809" s="2" t="s">
         <v>1613</v>
-      </c>
-      <c r="B809" s="2" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="810" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B810" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="B810" s="2" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="811" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B811" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="B811" s="2" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="812" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B812" s="2" t="s">
         <v>1619</v>
-      </c>
-      <c r="B812" s="2" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="813" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B813" s="2" t="s">
         <v>1621</v>
-      </c>
-      <c r="B813" s="2" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="814" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B814" s="2" t="s">
         <v>1623</v>
-      </c>
-      <c r="B814" s="2" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="815" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B815" s="2" t="s">
         <v>1625</v>
-      </c>
-      <c r="B815" s="2" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="816" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B816" s="2" t="s">
         <v>1627</v>
-      </c>
-      <c r="B816" s="2" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="817" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B817" s="2" t="s">
         <v>1629</v>
-      </c>
-      <c r="B817" s="2" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="818" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B818" s="2" t="s">
         <v>1631</v>
-      </c>
-      <c r="B818" s="2" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="819" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B819" s="2" t="s">
         <v>1633</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="820" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B820" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="B820" s="2" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="821" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B821" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="B821" s="2" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="822" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B822" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="B822" s="2" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="823" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B823" s="2" t="s">
         <v>1641</v>
-      </c>
-      <c r="B823" s="2" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="824" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B824" s="2" t="s">
         <v>1643</v>
-      </c>
-      <c r="B824" s="2" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="825" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B825" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="B825" s="2" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="826" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B826" s="2" t="s">
         <v>1647</v>
-      </c>
-      <c r="B826" s="2" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="827" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B827" s="2" t="s">
         <v>1649</v>
-      </c>
-      <c r="B827" s="2" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="828" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B828" s="2" t="s">
         <v>1651</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="829" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B829" s="2" t="s">
         <v>1653</v>
-      </c>
-      <c r="B829" s="2" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="830" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B830" s="2" t="s">
         <v>1655</v>
-      </c>
-      <c r="B830" s="2" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="831" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B831" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="B831" s="2" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="832" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B832" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="B832" s="2" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="833" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B833" s="2" t="s">
         <v>1661</v>
-      </c>
-      <c r="B833" s="2" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="834" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B834" s="2" t="s">
         <v>1663</v>
-      </c>
-      <c r="B834" s="2" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="835" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B835" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="B835" s="2" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="836" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B836" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="B836" s="2" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="837" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B837" s="2" t="s">
         <v>1669</v>
-      </c>
-      <c r="B837" s="2" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="838" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B838" s="2" t="s">
         <v>1671</v>
-      </c>
-      <c r="B838" s="2" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="839" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B839" s="2" t="s">
         <v>1673</v>
-      </c>
-      <c r="B839" s="2" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="840" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B840" s="2" t="s">
         <v>1675</v>
-      </c>
-      <c r="B840" s="2" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="841" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B841" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="B841" s="2" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="842" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B842" s="2" t="s">
         <v>1679</v>
-      </c>
-      <c r="B842" s="2" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="843" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B843" s="2" t="s">
         <v>1681</v>
-      </c>
-      <c r="B843" s="2" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="844" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B844" s="2" t="s">
         <v>1683</v>
-      </c>
-      <c r="B844" s="2" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="845" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B845" s="2" t="s">
         <v>1685</v>
-      </c>
-      <c r="B845" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="846" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B846" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="B846" s="2" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="847" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B847" s="2" t="s">
         <v>1689</v>
-      </c>
-      <c r="B847" s="2" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="848" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B848" s="2" t="s">
         <v>1691</v>
-      </c>
-      <c r="B848" s="2" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="849" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B849" s="2" t="s">
         <v>1693</v>
-      </c>
-      <c r="B849" s="2" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="850" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B850" s="2" t="s">
         <v>1695</v>
-      </c>
-      <c r="B850" s="2" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="851" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B851" s="2" t="s">
         <v>1697</v>
-      </c>
-      <c r="B851" s="2" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="852" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B852" s="2" t="s">
         <v>1699</v>
-      </c>
-      <c r="B852" s="2" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="853" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B853" s="2" t="s">
         <v>1701</v>
-      </c>
-      <c r="B853" s="2" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="854" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B854" s="2" t="s">
         <v>1703</v>
-      </c>
-      <c r="B854" s="2" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="855" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B855" s="2" t="s">
         <v>1705</v>
-      </c>
-      <c r="B855" s="2" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="856" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B856" s="2" t="s">
         <v>1707</v>
-      </c>
-      <c r="B856" s="2" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="857" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B857" s="2" t="s">
         <v>1709</v>
-      </c>
-      <c r="B857" s="2" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="858" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B858" s="2" t="s">
         <v>1711</v>
-      </c>
-      <c r="B858" s="2" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="859" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B859" s="2" t="s">
         <v>1713</v>
-      </c>
-      <c r="B859" s="2" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="860" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B860" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="B860" s="2" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="861" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B861" s="2" t="s">
         <v>1717</v>
-      </c>
-      <c r="B861" s="2" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="862" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B862" s="2" t="s">
         <v>1719</v>
-      </c>
-      <c r="B862" s="2" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="863" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B863" s="2" t="s">
         <v>1721</v>
-      </c>
-      <c r="B863" s="2" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="864" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B864" s="2" t="s">
         <v>1723</v>
-      </c>
-      <c r="B864" s="2" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="865" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B865" s="2" t="s">
         <v>1725</v>
-      </c>
-      <c r="B865" s="2" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="866" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B866" s="2" t="s">
         <v>1727</v>
-      </c>
-      <c r="B866" s="2" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="867" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B867" s="2" t="s">
         <v>1729</v>
-      </c>
-      <c r="B867" s="2" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="868" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B868" s="2" t="s">
         <v>1731</v>
-      </c>
-      <c r="B868" s="2" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="869" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B869" s="2" t="s">
         <v>1733</v>
-      </c>
-      <c r="B869" s="2" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="870" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B870" s="2" t="s">
         <v>1735</v>
-      </c>
-      <c r="B870" s="2" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="871" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B871" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="B871" s="2" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="872" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B872" s="2" t="s">
         <v>1739</v>
-      </c>
-      <c r="B872" s="2" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="873" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B873" s="2" t="s">
         <v>1741</v>
-      </c>
-      <c r="B873" s="2" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="874" spans="1:2" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B874" s="2" t="s">
         <v>1743</v>
-      </c>
-      <c r="B874" s="2" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="875" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B875" s="2" t="s">
         <v>1745</v>
-      </c>
-      <c r="B875" s="2" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="876" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B876" s="2" t="s">
         <v>1747</v>
-      </c>
-      <c r="B876" s="2" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="877" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B877" s="2" t="s">
         <v>1749</v>
-      </c>
-      <c r="B877" s="2" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="878" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B878" s="2" t="s">
         <v>1751</v>
-      </c>
-      <c r="B878" s="2" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="879" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B879" s="2" t="s">
         <v>1753</v>
-      </c>
-      <c r="B879" s="2" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="880" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B880" s="2" t="s">
         <v>1755</v>
-      </c>
-      <c r="B880" s="2" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="881" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B881" s="2" t="s">
         <v>1757</v>
-      </c>
-      <c r="B881" s="2" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="882" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B882" s="2" t="s">
         <v>1759</v>
-      </c>
-      <c r="B882" s="2" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="883" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B883" s="2" t="s">
         <v>1761</v>
-      </c>
-      <c r="B883" s="2" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="884" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B884" s="2" t="s">
         <v>1763</v>
-      </c>
-      <c r="B884" s="2" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="885" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B885" s="2" t="s">
         <v>1765</v>
-      </c>
-      <c r="B885" s="2" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="886" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B886" s="2" t="s">
         <v>1767</v>
-      </c>
-      <c r="B886" s="2" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="887" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B887" s="2" t="s">
         <v>1769</v>
-      </c>
-      <c r="B887" s="2" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="888" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B888" s="2" t="s">
         <v>1771</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="889" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B889" s="2" t="s">
         <v>1773</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="890" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B890" s="2" t="s">
         <v>1775</v>
-      </c>
-      <c r="B890" s="2" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="891" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B891" s="2" t="s">
         <v>1777</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="892" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B892" s="2" t="s">
         <v>1779</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="893" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B893" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="B893" s="2" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="894" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B894" s="2" t="s">
         <v>1783</v>
-      </c>
-      <c r="B894" s="2" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="895" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B895" s="2" t="s">
         <v>1785</v>
-      </c>
-      <c r="B895" s="2" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="896" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B896" s="2" t="s">
         <v>1787</v>
-      </c>
-      <c r="B896" s="2" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="897" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B897" s="2" t="s">
         <v>1789</v>
-      </c>
-      <c r="B897" s="2" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="898" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B898" s="2" t="s">
         <v>1791</v>
-      </c>
-      <c r="B898" s="2" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="899" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B899" s="2" t="s">
         <v>1793</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="900" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B900" s="2" t="s">
         <v>1795</v>
-      </c>
-      <c r="B900" s="2" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="901" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B901" s="2" t="s">
         <v>1797</v>
-      </c>
-      <c r="B901" s="2" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="902" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B902" s="2" t="s">
         <v>1799</v>
-      </c>
-      <c r="B902" s="2" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="903" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B903" s="2" t="s">
         <v>1801</v>
-      </c>
-      <c r="B903" s="2" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="904" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B904" s="2" t="s">
         <v>1803</v>
-      </c>
-      <c r="B904" s="2" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="905" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B905" s="2" t="s">
         <v>1805</v>
-      </c>
-      <c r="B905" s="2" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="906" spans="1:2" s="2" customFormat="1" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B906" s="2" t="s">
         <v>1807</v>
-      </c>
-      <c r="B906" s="2" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="907" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B907" s="2" t="s">
         <v>1809</v>
-      </c>
-      <c r="B907" s="2" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="908" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B908" s="2" t="s">
         <v>1811</v>
-      </c>
-      <c r="B908" s="2" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="909" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B909" s="2" t="s">
         <v>1813</v>
-      </c>
-      <c r="B909" s="2" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="910" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B910" s="2" t="s">
         <v>1815</v>
-      </c>
-      <c r="B910" s="2" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="911" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B911" s="2" t="s">
         <v>1817</v>
-      </c>
-      <c r="B911" s="2" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="912" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B912" s="2" t="s">
         <v>1819</v>
-      </c>
-      <c r="B912" s="2" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="913" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B913" s="2" t="s">
         <v>1821</v>
-      </c>
-      <c r="B913" s="2" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="914" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B914" s="2" t="s">
         <v>1823</v>
-      </c>
-      <c r="B914" s="2" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="915" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B915" s="2" t="s">
         <v>1825</v>
-      </c>
-      <c r="B915" s="2" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="916" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B916" s="2" t="s">
         <v>1827</v>
-      </c>
-      <c r="B916" s="2" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="917" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B917" s="2" t="s">
         <v>1829</v>
-      </c>
-      <c r="B917" s="2" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="918" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B918" s="2" t="s">
         <v>1831</v>
-      </c>
-      <c r="B918" s="2" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="919" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B919" s="2" t="s">
         <v>1833</v>
-      </c>
-      <c r="B919" s="2" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="920" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B920" s="2" t="s">
         <v>1835</v>
-      </c>
-      <c r="B920" s="2" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="921" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B921" s="2" t="s">
         <v>1837</v>
-      </c>
-      <c r="B921" s="2" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="922" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B922" s="2" t="s">
         <v>1839</v>
-      </c>
-      <c r="B922" s="2" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="923" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B923" s="2" t="s">
         <v>1841</v>
-      </c>
-      <c r="B923" s="2" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="924" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B924" s="2" t="s">
         <v>1843</v>
-      </c>
-      <c r="B924" s="2" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="925" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B925" s="2" t="s">
         <v>1845</v>
-      </c>
-      <c r="B925" s="2" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="926" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B926" s="2" t="s">
         <v>1847</v>
-      </c>
-      <c r="B926" s="2" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="927" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B927" s="2" t="s">
         <v>1849</v>
-      </c>
-      <c r="B927" s="2" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="928" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B928" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="B928" s="2" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="929" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B929" s="2" t="s">
         <v>1853</v>
-      </c>
-      <c r="B929" s="2" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="930" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B930" s="2" t="s">
         <v>1855</v>
-      </c>
-      <c r="B930" s="2" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="931" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B931" s="2" t="s">
         <v>1857</v>
-      </c>
-      <c r="B931" s="2" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="932" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B932" s="2" t="s">
         <v>1859</v>
-      </c>
-      <c r="B932" s="2" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="933" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B933" s="2" t="s">
         <v>1861</v>
-      </c>
-      <c r="B933" s="2" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="934" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B934" s="2" t="s">
         <v>1863</v>
-      </c>
-      <c r="B934" s="2" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="935" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B935" s="2" t="s">
         <v>1865</v>
-      </c>
-      <c r="B935" s="2" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="936" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B936" s="2" t="s">
         <v>1867</v>
-      </c>
-      <c r="B936" s="2" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="937" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B937" s="2" t="s">
         <v>1869</v>
-      </c>
-      <c r="B937" s="2" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="938" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B938" s="2" t="s">
         <v>1871</v>
-      </c>
-      <c r="B938" s="2" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="939" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B939" s="2" t="s">
         <v>1873</v>
-      </c>
-      <c r="B939" s="2" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="940" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B940" s="2" t="s">
         <v>1875</v>
-      </c>
-      <c r="B940" s="2" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="941" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B941" s="2" t="s">
         <v>1877</v>
-      </c>
-      <c r="B941" s="2" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="942" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B942" s="2" t="s">
         <v>1879</v>
-      </c>
-      <c r="B942" s="2" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="943" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B943" s="2" t="s">
         <v>1881</v>
-      </c>
-      <c r="B943" s="2" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="944" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B944" s="2" t="s">
         <v>1883</v>
-      </c>
-      <c r="B944" s="2" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="945" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B945" s="2" t="s">
         <v>1885</v>
-      </c>
-      <c r="B945" s="2" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="946" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B946" s="2" t="s">
         <v>1887</v>
-      </c>
-      <c r="B946" s="2" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="947" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B947" s="2" t="s">
         <v>1889</v>
-      </c>
-      <c r="B947" s="2" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="948" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B948" s="2" t="s">
         <v>1891</v>
-      </c>
-      <c r="B948" s="2" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="949" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B949" s="2" t="s">
         <v>1893</v>
-      </c>
-      <c r="B949" s="2" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="950" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B950" s="2" t="s">
         <v>1895</v>
-      </c>
-      <c r="B950" s="2" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="951" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B951" s="2" t="s">
         <v>1897</v>
-      </c>
-      <c r="B951" s="2" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="952" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B952" s="2" t="s">
         <v>1899</v>
-      </c>
-      <c r="B952" s="2" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="953" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B953" s="2" t="s">
         <v>1901</v>
-      </c>
-      <c r="B953" s="2" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="954" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B954" s="2" t="s">
         <v>1903</v>
-      </c>
-      <c r="B954" s="2" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="955" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B955" s="2" t="s">
         <v>1905</v>
-      </c>
-      <c r="B955" s="2" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="956" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B956" s="2" t="s">
         <v>1907</v>
-      </c>
-      <c r="B956" s="2" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="957" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B957" s="2" t="s">
         <v>1909</v>
-      </c>
-      <c r="B957" s="2" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="958" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B958" s="2" t="s">
         <v>1911</v>
-      </c>
-      <c r="B958" s="2" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="959" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B959" s="2" t="s">
         <v>1913</v>
-      </c>
-      <c r="B959" s="2" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="960" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B960" s="2" t="s">
         <v>1915</v>
-      </c>
-      <c r="B960" s="2" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="961" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B961" s="2" t="s">
         <v>1917</v>
-      </c>
-      <c r="B961" s="2" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="962" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B962" s="2" t="s">
         <v>1919</v>
-      </c>
-      <c r="B962" s="2" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="963" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B963" s="2" t="s">
         <v>1921</v>
-      </c>
-      <c r="B963" s="2" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="964" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B964" s="2" t="s">
         <v>1923</v>
-      </c>
-      <c r="B964" s="2" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="965" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B965" s="2" t="s">
         <v>1925</v>
-      </c>
-      <c r="B965" s="2" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="966" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B966" s="2" t="s">
         <v>1927</v>
-      </c>
-      <c r="B966" s="2" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="967" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B967" s="2" t="s">
         <v>1929</v>
-      </c>
-      <c r="B967" s="2" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="968" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B968" s="2" t="s">
         <v>1931</v>
-      </c>
-      <c r="B968" s="2" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="969" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B969" s="2" t="s">
         <v>1933</v>
-      </c>
-      <c r="B969" s="2" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="970" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B970" s="2" t="s">
         <v>1935</v>
-      </c>
-      <c r="B970" s="2" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="971" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B971" s="2" t="s">
         <v>1937</v>
-      </c>
-      <c r="B971" s="2" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="972" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B972" s="2" t="s">
         <v>1939</v>
-      </c>
-      <c r="B972" s="2" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="973" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B973" s="2" t="s">
         <v>1941</v>
-      </c>
-      <c r="B973" s="2" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="974" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B974" s="2" t="s">
         <v>1943</v>
-      </c>
-      <c r="B974" s="2" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="975" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B975" s="2" t="s">
         <v>1945</v>
-      </c>
-      <c r="B975" s="2" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="976" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B976" s="2" t="s">
         <v>1947</v>
-      </c>
-      <c r="B976" s="2" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="977" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B977" s="2" t="s">
         <v>1949</v>
-      </c>
-      <c r="B977" s="2" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="978" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B978" s="2" t="s">
         <v>1951</v>
-      </c>
-      <c r="B978" s="2" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="979" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B979" s="2" t="s">
         <v>1953</v>
-      </c>
-      <c r="B979" s="2" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="980" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B980" s="2" t="s">
         <v>1955</v>
-      </c>
-      <c r="B980" s="2" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="981" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B981" s="2" t="s">
         <v>1957</v>
-      </c>
-      <c r="B981" s="2" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="982" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B982" s="2" t="s">
         <v>1959</v>
-      </c>
-      <c r="B982" s="2" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="983" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B983" s="2" t="s">
         <v>1961</v>
-      </c>
-      <c r="B983" s="2" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="984" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B984" s="2" t="s">
         <v>1963</v>
-      </c>
-      <c r="B984" s="2" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="985" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B985" s="2" t="s">
         <v>1965</v>
-      </c>
-      <c r="B985" s="2" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="986" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B986" s="2" t="s">
         <v>1967</v>
-      </c>
-      <c r="B986" s="2" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="987" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B987" s="2" t="s">
         <v>1969</v>
-      </c>
-      <c r="B987" s="2" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="988" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B988" s="2" t="s">
         <v>1971</v>
-      </c>
-      <c r="B988" s="2" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="989" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B989" s="2" t="s">
         <v>1973</v>
-      </c>
-      <c r="B989" s="2" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="990" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B990" s="2" t="s">
         <v>1975</v>
-      </c>
-      <c r="B990" s="2" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="991" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B991" s="2" t="s">
         <v>1977</v>
-      </c>
-      <c r="B991" s="2" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="992" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B992" s="2" t="s">
         <v>1979</v>
-      </c>
-      <c r="B992" s="2" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="993" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A993" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B993" s="2" t="s">
         <v>1981</v>
-      </c>
-      <c r="B993" s="2" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="994" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A994" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B994" s="2" t="s">
         <v>1983</v>
-      </c>
-      <c r="B994" s="2" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="995" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B995" s="2" t="s">
         <v>1985</v>
-      </c>
-      <c r="B995" s="2" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="996" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A996" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B996" s="2" t="s">
         <v>1987</v>
-      </c>
-      <c r="B996" s="2" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="997" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A997" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B997" s="2" t="s">
         <v>1989</v>
-      </c>
-      <c r="B997" s="2" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="998" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A998" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B998" s="2" t="s">
         <v>1991</v>
-      </c>
-      <c r="B998" s="2" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="999" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A999" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B999" s="2" t="s">
         <v>1993</v>
-      </c>
-      <c r="B999" s="2" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="1000" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1000" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1000" s="2" t="s">
         <v>1995</v>
-      </c>
-      <c r="B1000" s="2" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="1001" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1001" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1001" s="2" t="s">
         <v>1997</v>
-      </c>
-      <c r="B1001" s="2" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="1002" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1002" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1002" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="B1002" s="2" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="1003" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1003" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1003" s="2" t="s">
         <v>2001</v>
-      </c>
-      <c r="B1003" s="2" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1004" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1004" s="2" t="s">
         <v>2003</v>
-      </c>
-      <c r="B1004" s="2" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="1005" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1005" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1005" s="2" t="s">
         <v>2005</v>
-      </c>
-      <c r="B1005" s="2" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="1006" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1006" s="2" t="s">
         <v>2007</v>
-      </c>
-      <c r="B1006" s="2" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="1007" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A1007" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1007" s="2" t="s">
         <v>2009</v>
-      </c>
-      <c r="B1007" s="2" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="1008" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1008" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1008" s="2" t="s">
         <v>2011</v>
-      </c>
-      <c r="B1008" s="2" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="1009" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1009" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1009" s="2" t="s">
         <v>2013</v>
-      </c>
-      <c r="B1009" s="2" t="s">
-        <v>2014</v>
       </c>
     </row>
     <row r="1010" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1010" s="2" t="s">
         <v>2015</v>
-      </c>
-      <c r="B1010" s="2" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="1011" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1011" s="2" t="s">
         <v>2017</v>
-      </c>
-      <c r="B1011" s="2" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="1012" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1012" s="2" t="s">
         <v>2019</v>
-      </c>
-      <c r="B1012" s="2" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="1013" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1013" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1013" s="2" t="s">
         <v>340</v>
@@ -15077,586 +15077,586 @@
     </row>
     <row r="1014" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1014" s="2" t="s">
         <v>2022</v>
-      </c>
-      <c r="B1014" s="2" t="s">
-        <v>2023</v>
       </c>
     </row>
     <row r="1015" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1015" s="2" t="s">
         <v>2024</v>
-      </c>
-      <c r="B1015" s="2" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="1016" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1016" s="2" t="s">
         <v>2026</v>
-      </c>
-      <c r="B1016" s="2" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="1017" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1017" s="2" t="s">
         <v>2028</v>
-      </c>
-      <c r="B1017" s="2" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="1018" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1018" s="2" t="s">
         <v>2030</v>
-      </c>
-      <c r="B1018" s="2" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="1019" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1019" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="B1019" s="2" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="1020" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1020" s="2" t="s">
         <v>2034</v>
-      </c>
-      <c r="B1020" s="2" t="s">
-        <v>2035</v>
       </c>
     </row>
     <row r="1021" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1021" s="2" t="s">
         <v>2036</v>
-      </c>
-      <c r="B1021" s="2" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="1022" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1022" s="2" t="s">
         <v>2038</v>
-      </c>
-      <c r="B1022" s="2" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="1023" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1023" s="2" t="s">
         <v>2040</v>
-      </c>
-      <c r="B1023" s="2" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="1024" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1024" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1024" s="2" t="s">
         <v>2042</v>
-      </c>
-      <c r="B1024" s="2" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="1025" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1025" s="2" t="s">
         <v>2044</v>
-      </c>
-      <c r="B1025" s="2" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="1026" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1026" s="2" t="s">
         <v>2046</v>
-      </c>
-      <c r="B1026" s="2" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="1027" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1027" s="2" t="s">
         <v>2048</v>
-      </c>
-      <c r="B1027" s="2" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="1028" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1028" s="2" t="s">
         <v>2050</v>
-      </c>
-      <c r="B1028" s="2" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="1029" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1029" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1029" s="2" t="s">
         <v>2052</v>
-      </c>
-      <c r="B1029" s="2" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="1030" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1030" s="2" t="s">
         <v>2054</v>
-      </c>
-      <c r="B1030" s="2" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="1031" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1031" s="2" t="s">
         <v>2056</v>
-      </c>
-      <c r="B1031" s="2" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="1032" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1032" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1032" s="2" t="s">
         <v>2058</v>
-      </c>
-      <c r="B1032" s="2" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="1033" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1033" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1033" s="2" t="s">
         <v>2060</v>
-      </c>
-      <c r="B1033" s="2" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="1034" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1034" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1034" s="2" t="s">
         <v>2062</v>
-      </c>
-      <c r="B1034" s="2" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="1035" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1035" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1035" s="2" t="s">
         <v>2064</v>
-      </c>
-      <c r="B1035" s="2" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="1036" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1036" s="2" t="s">
         <v>2066</v>
-      </c>
-      <c r="B1036" s="2" t="s">
-        <v>2067</v>
       </c>
     </row>
     <row r="1037" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1037" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1037" s="2" t="s">
         <v>2068</v>
-      </c>
-      <c r="B1037" s="2" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="1038" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1038" s="2" t="s">
         <v>2070</v>
-      </c>
-      <c r="B1038" s="2" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="1039" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1039" s="2" t="s">
         <v>2072</v>
-      </c>
-      <c r="B1039" s="2" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="1040" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1040" s="2" t="s">
         <v>2074</v>
-      </c>
-      <c r="B1040" s="2" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="1041" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1041" s="2" t="s">
         <v>2076</v>
-      </c>
-      <c r="B1041" s="2" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="1042" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1042" s="2" t="s">
         <v>2078</v>
-      </c>
-      <c r="B1042" s="2" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="1043" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1043" s="2" t="s">
         <v>2080</v>
-      </c>
-      <c r="B1043" s="2" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="1044" spans="1:2" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1044" s="2" t="s">
         <v>2082</v>
-      </c>
-      <c r="B1044" s="2" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="1045" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1045" s="2" t="s">
         <v>2084</v>
-      </c>
-      <c r="B1045" s="2" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="1046" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1046" s="2" t="s">
         <v>2086</v>
-      </c>
-      <c r="B1046" s="2" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="1047" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1047" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1047" s="2" t="s">
         <v>2088</v>
-      </c>
-      <c r="B1047" s="2" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="1048" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1048" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1048" s="2" t="s">
         <v>2090</v>
-      </c>
-      <c r="B1048" s="2" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="1049" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1049" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1049" s="2" t="s">
         <v>2092</v>
-      </c>
-      <c r="B1049" s="2" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="1050" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1050" s="2" t="s">
         <v>2094</v>
-      </c>
-      <c r="B1050" s="2" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="1051" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1051" s="2" t="s">
         <v>2096</v>
-      </c>
-      <c r="B1051" s="2" t="s">
-        <v>2097</v>
       </c>
     </row>
     <row r="1052" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1052" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1052" s="2" t="s">
         <v>2098</v>
-      </c>
-      <c r="B1052" s="2" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="1053" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1053" s="2" t="s">
         <v>2100</v>
-      </c>
-      <c r="B1053" s="2" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="1054" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1054" s="2" t="s">
         <v>2102</v>
-      </c>
-      <c r="B1054" s="2" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="1055" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1055" s="2" t="s">
         <v>2104</v>
-      </c>
-      <c r="B1055" s="2" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="1056" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1056" s="2" t="s">
         <v>2106</v>
-      </c>
-      <c r="B1056" s="2" t="s">
-        <v>2107</v>
       </c>
     </row>
     <row r="1057" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1057" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1057" s="2" t="s">
         <v>2108</v>
-      </c>
-      <c r="B1057" s="2" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="1058" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1058" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1058" s="2" t="s">
         <v>2110</v>
-      </c>
-      <c r="B1058" s="2" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="1059" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1059" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1059" s="2" t="s">
         <v>2112</v>
-      </c>
-      <c r="B1059" s="2" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="1060" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1060" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1060" s="2" t="s">
         <v>2114</v>
-      </c>
-      <c r="B1060" s="2" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="1061" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1061" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1061" s="2" t="s">
         <v>2116</v>
-      </c>
-      <c r="B1061" s="2" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="1062" spans="1:2" s="2" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A1062" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1062" s="2" t="s">
         <v>2118</v>
-      </c>
-      <c r="B1062" s="2" t="s">
-        <v>2119</v>
       </c>
     </row>
     <row r="1063" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A1063" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1063" s="2" t="s">
         <v>2120</v>
-      </c>
-      <c r="B1063" s="2" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="1064" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1064" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1064" s="2" t="s">
         <v>2122</v>
-      </c>
-      <c r="B1064" s="2" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="1065" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1065" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1065" s="2" t="s">
         <v>2124</v>
-      </c>
-      <c r="B1065" s="2" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="1066" spans="1:2" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A1066" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1066" s="2" t="s">
         <v>2126</v>
-      </c>
-      <c r="B1066" s="2" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="1067" spans="1:2" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1067" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1067" s="2" t="s">
         <v>2128</v>
-      </c>
-      <c r="B1067" s="2" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="1068" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1068" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1068" s="2" t="s">
         <v>2130</v>
-      </c>
-      <c r="B1068" s="2" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1069" spans="1:2" s="2" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A1069" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1069" s="2" t="s">
         <v>2132</v>
-      </c>
-      <c r="B1069" s="2" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="1070" spans="1:2" s="2" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1070" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1070" s="2" t="s">
         <v>2134</v>
-      </c>
-      <c r="B1070" s="2" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="1071" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1071" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1071" s="2" t="s">
         <v>2136</v>
-      </c>
-      <c r="B1071" s="2" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="1072" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1072" s="2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1072" s="2" t="s">
         <v>2138</v>
-      </c>
-      <c r="B1072" s="2" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="1073" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1073" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1073" s="2" t="s">
         <v>2140</v>
-      </c>
-      <c r="B1073" s="2" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="1074" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1074" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1074" s="2" t="s">
         <v>2142</v>
-      </c>
-      <c r="B1074" s="2" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="1075" spans="1:2" s="2" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A1075" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1075" s="2" t="s">
         <v>2144</v>
-      </c>
-      <c r="B1075" s="2" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="1076" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1076" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1076" s="2" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1076" s="2" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="1077" spans="1:2" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A1077" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1077" s="2" t="s">
         <v>2148</v>
-      </c>
-      <c r="B1077" s="2" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="1078" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1078" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1078" s="2" t="s">
         <v>2150</v>
-      </c>
-      <c r="B1078" s="2" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="1079" spans="1:2" s="2" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A1079" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1079" s="2" t="s">
         <v>2152</v>
-      </c>
-      <c r="B1079" s="2" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="1080" spans="1:2" s="2" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A1080" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1080" s="2" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1080" s="2" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="1081" spans="1:2" s="2" customFormat="1" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A1081" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1081" s="2" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1081" s="2" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="1082" spans="1:2" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A1082" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1082" s="2" t="s">
         <v>2158</v>
-      </c>
-      <c r="B1082" s="2" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="1083" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1083" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1083" s="2" t="s">
         <v>2160</v>
-      </c>
-      <c r="B1083" s="2" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="1084" spans="1:2" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A1084" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1084" s="2" t="s">
         <v>2162</v>
-      </c>
-      <c r="B1084" s="2" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="1085" spans="1:2" s="2" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1085" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1085" s="2" t="s">
         <v>2164</v>
-      </c>
-      <c r="B1085" s="2" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="1086" spans="1:2" s="2" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A1086" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1086" s="2" t="s">
         <v>2166</v>
-      </c>
-      <c r="B1086" s="2" t="s">
-        <v>2167</v>
       </c>
     </row>
   </sheetData>
